--- a/data/Ireland.xlsx
+++ b/data/Ireland.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="584" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="590" uniqueCount="79">
   <si>
     <t xml:space="preserve">Province.State</t>
   </si>
@@ -255,6 +255,9 @@
   </si>
   <si>
     <t xml:space="preserve">2020-03-29</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-03-30</t>
   </si>
 </sst>
 </file>
@@ -362,7 +365,7 @@
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.78515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.8046875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="0" width="13.82"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="7.95"/>
@@ -1491,13 +1494,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G137"/>
+  <dimension ref="A1:G139"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A112" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F137" activeCellId="0" sqref="F137"/>
+      <selection pane="topLeft" activeCell="E140" activeCellId="0" sqref="E140"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.78515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.8046875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="0" width="13.82"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="7.95"/>
@@ -4254,6 +4257,46 @@
         <v>63</v>
       </c>
     </row>
+    <row r="138" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B138" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C138" s="0" t="n">
+        <v>53.1424</v>
+      </c>
+      <c r="D138" s="0" t="n">
+        <v>-7.6921</v>
+      </c>
+      <c r="E138" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="F138" s="0" t="n">
+        <v>295</v>
+      </c>
+      <c r="G138" s="0" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="139" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B139" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C139" s="0" t="n">
+        <v>53.1424</v>
+      </c>
+      <c r="D139" s="0" t="n">
+        <v>-7.6921</v>
+      </c>
+      <c r="E139" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="F139" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="G139" s="0" t="s">
+        <v>63</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>

--- a/data/Ireland.xlsx
+++ b/data/Ireland.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="590" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="596" uniqueCount="80">
   <si>
     <t xml:space="preserve">Province.State</t>
   </si>
@@ -258,6 +258,9 @@
   </si>
   <si>
     <t xml:space="preserve">2020-03-30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-03-31</t>
   </si>
 </sst>
 </file>
@@ -365,7 +368,7 @@
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.8046875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.82421875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="0" width="13.82"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="7.95"/>
@@ -1494,13 +1497,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G139"/>
+  <dimension ref="A1:G141"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A112" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E140" activeCellId="0" sqref="E140"/>
+      <selection pane="topLeft" activeCell="F142" activeCellId="0" sqref="F142"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.8046875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.82421875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="0" width="13.82"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="7.95"/>
@@ -4297,6 +4300,46 @@
         <v>63</v>
       </c>
     </row>
+    <row r="140" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B140" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C140" s="0" t="n">
+        <v>53.1424</v>
+      </c>
+      <c r="D140" s="0" t="n">
+        <v>-7.6921</v>
+      </c>
+      <c r="E140" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="F140" s="0" t="n">
+        <v>325</v>
+      </c>
+      <c r="G140" s="0" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="141" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B141" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C141" s="0" t="n">
+        <v>53.1424</v>
+      </c>
+      <c r="D141" s="0" t="n">
+        <v>-7.6921</v>
+      </c>
+      <c r="E141" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="F141" s="0" t="n">
+        <v>17</v>
+      </c>
+      <c r="G141" s="0" t="s">
+        <v>63</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>

--- a/data/Ireland.xlsx
+++ b/data/Ireland.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="596" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="656" uniqueCount="90">
   <si>
     <t xml:space="preserve">Province.State</t>
   </si>
@@ -261,6 +261,36 @@
   </si>
   <si>
     <t xml:space="preserve">2020-03-31</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-04-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-04-02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-04-03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-04-04</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-04-05</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-04-06</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-04-07</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-04-08</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-04-09</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-04-10</t>
   </si>
 </sst>
 </file>
@@ -365,10 +395,10 @@
   <dimension ref="A1:G55"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="A162:G163 A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.82421875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="0" width="13.82"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="7.95"/>
@@ -1497,13 +1527,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G141"/>
+  <dimension ref="A1:G163"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A112" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F142" activeCellId="0" sqref="F142"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A133" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A162" activeCellId="0" sqref="A162:G163"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.82421875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="0" width="13.82"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="7.95"/>
@@ -4340,6 +4370,412 @@
         <v>63</v>
       </c>
     </row>
+    <row r="142" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B142" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C142" s="0" t="n">
+        <v>53.1424</v>
+      </c>
+      <c r="D142" s="0" t="n">
+        <v>-7.6921</v>
+      </c>
+      <c r="E142" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="F142" s="0" t="n">
+        <v>212</v>
+      </c>
+      <c r="G142" s="0" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="143" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B143" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C143" s="0" t="n">
+        <v>53.1424</v>
+      </c>
+      <c r="D143" s="0" t="n">
+        <v>-7.6921</v>
+      </c>
+      <c r="E143" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="F143" s="0" t="n">
+        <v>14</v>
+      </c>
+      <c r="G143" s="0" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="144" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B144" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C144" s="0" t="n">
+        <v>53.1424</v>
+      </c>
+      <c r="D144" s="0" t="n">
+        <v>-7.6921</v>
+      </c>
+      <c r="E144" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="F144" s="0" t="n">
+        <v>402</v>
+      </c>
+      <c r="G144" s="0" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="145" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B145" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C145" s="0" t="n">
+        <v>53.1424</v>
+      </c>
+      <c r="D145" s="0" t="n">
+        <v>-7.6921</v>
+      </c>
+      <c r="E145" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="F145" s="0" t="n">
+        <v>13</v>
+      </c>
+      <c r="G145" s="0" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="146" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B146" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C146" s="0" t="n">
+        <v>53.1424</v>
+      </c>
+      <c r="D146" s="0" t="n">
+        <v>-7.6921</v>
+      </c>
+      <c r="E146" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="F146" s="0" t="n">
+        <v>424</v>
+      </c>
+      <c r="G146" s="0" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="147" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B147" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C147" s="0" t="n">
+        <v>53.1424</v>
+      </c>
+      <c r="D147" s="0" t="n">
+        <v>-7.6921</v>
+      </c>
+      <c r="E147" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="F147" s="0" t="n">
+        <v>22</v>
+      </c>
+      <c r="G147" s="0" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="148" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B148" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C148" s="0" t="n">
+        <v>53.1424</v>
+      </c>
+      <c r="D148" s="0" t="n">
+        <v>-7.6921</v>
+      </c>
+      <c r="E148" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="F148" s="0" t="n">
+        <v>331</v>
+      </c>
+      <c r="G148" s="0" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="149" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B149" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C149" s="0" t="n">
+        <v>53.1424</v>
+      </c>
+      <c r="D149" s="0" t="n">
+        <v>-7.6921</v>
+      </c>
+      <c r="E149" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="F149" s="0" t="n">
+        <v>17</v>
+      </c>
+      <c r="G149" s="0" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="150" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B150" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C150" s="0" t="n">
+        <v>53.1424</v>
+      </c>
+      <c r="D150" s="0" t="n">
+        <v>-7.6921</v>
+      </c>
+      <c r="E150" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="F150" s="0" t="n">
+        <v>390</v>
+      </c>
+      <c r="G150" s="0" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="151" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B151" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C151" s="0" t="n">
+        <v>53.1424</v>
+      </c>
+      <c r="D151" s="0" t="n">
+        <v>-7.6921</v>
+      </c>
+      <c r="E151" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="F151" s="0" t="n">
+        <v>21</v>
+      </c>
+      <c r="G151" s="0" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="152" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B152" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C152" s="0" t="n">
+        <v>53.1424</v>
+      </c>
+      <c r="D152" s="0" t="n">
+        <v>-7.6921</v>
+      </c>
+      <c r="E152" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="F152" s="0" t="n">
+        <v>370</v>
+      </c>
+      <c r="G152" s="0" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="153" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B153" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C153" s="0" t="n">
+        <v>53.1424</v>
+      </c>
+      <c r="D153" s="0" t="n">
+        <v>-7.6921</v>
+      </c>
+      <c r="E153" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="F153" s="0" t="n">
+        <v>16</v>
+      </c>
+      <c r="G153" s="0" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="154" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B154" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C154" s="0" t="n">
+        <v>53.1424</v>
+      </c>
+      <c r="D154" s="0" t="n">
+        <v>-7.6921</v>
+      </c>
+      <c r="E154" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="F154" s="0" t="n">
+        <v>345</v>
+      </c>
+      <c r="G154" s="0" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="155" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B155" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C155" s="0" t="n">
+        <v>53.1424</v>
+      </c>
+      <c r="D155" s="0" t="n">
+        <v>-7.6921</v>
+      </c>
+      <c r="E155" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="F155" s="0" t="n">
+        <v>36</v>
+      </c>
+      <c r="G155" s="0" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="156" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B156" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C156" s="0" t="n">
+        <v>53.1424</v>
+      </c>
+      <c r="D156" s="0" t="n">
+        <v>-7.6921</v>
+      </c>
+      <c r="E156" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="F156" s="0" t="n">
+        <v>365</v>
+      </c>
+      <c r="G156" s="0" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="157" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B157" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C157" s="0" t="n">
+        <v>53.1424</v>
+      </c>
+      <c r="D157" s="0" t="n">
+        <v>-7.6921</v>
+      </c>
+      <c r="E157" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="F157" s="0" t="n">
+        <v>25</v>
+      </c>
+      <c r="G157" s="0" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="158" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B158" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C158" s="0" t="n">
+        <v>53.1424</v>
+      </c>
+      <c r="D158" s="0" t="n">
+        <v>-7.6921</v>
+      </c>
+      <c r="E158" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="F158" s="0" t="n">
+        <v>500</v>
+      </c>
+      <c r="G158" s="0" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="159" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B159" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C159" s="0" t="n">
+        <v>53.1424</v>
+      </c>
+      <c r="D159" s="0" t="n">
+        <v>-7.6921</v>
+      </c>
+      <c r="E159" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="F159" s="0" t="n">
+        <v>28</v>
+      </c>
+      <c r="G159" s="0" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="160" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B160" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C160" s="0" t="n">
+        <v>53.1424</v>
+      </c>
+      <c r="D160" s="0" t="n">
+        <v>-7.6921</v>
+      </c>
+      <c r="E160" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="F160" s="0" t="n">
+        <v>480</v>
+      </c>
+      <c r="G160" s="0" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="161" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B161" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C161" s="0" t="n">
+        <v>53.1424</v>
+      </c>
+      <c r="D161" s="0" t="n">
+        <v>-7.6921</v>
+      </c>
+      <c r="E161" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="F161" s="0" t="n">
+        <v>26</v>
+      </c>
+      <c r="G161" s="0" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="162" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E162" s="1"/>
+    </row>
+    <row r="163" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E163" s="1"/>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>

--- a/data/Ireland.xlsx
+++ b/data/Ireland.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="656" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="692" uniqueCount="96">
   <si>
     <t xml:space="preserve">Province.State</t>
   </si>
@@ -291,6 +291,24 @@
   </si>
   <si>
     <t xml:space="preserve">2020-04-10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-04-11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-04-12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-04-13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-04-14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-04-15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-04-16</t>
   </si>
 </sst>
 </file>
@@ -395,10 +413,10 @@
   <dimension ref="A1:G55"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="A162:G163 A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.9140625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="0" width="13.82"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="7.95"/>
@@ -1527,13 +1545,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G163"/>
+  <dimension ref="A1:G173"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A133" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A162" activeCellId="0" sqref="A162:G163"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A137" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F172" activeCellId="0" sqref="F172"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.9140625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="0" width="13.82"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="7.95"/>
@@ -4771,10 +4789,244 @@
       </c>
     </row>
     <row r="162" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E162" s="1"/>
+      <c r="B162" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C162" s="0" t="n">
+        <v>53.1424</v>
+      </c>
+      <c r="D162" s="0" t="n">
+        <v>-7.6921</v>
+      </c>
+      <c r="E162" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="F162" s="0" t="n">
+        <v>553</v>
+      </c>
+      <c r="G162" s="0" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="163" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E163" s="1"/>
+      <c r="B163" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C163" s="0" t="n">
+        <v>53.1424</v>
+      </c>
+      <c r="D163" s="0" t="n">
+        <v>-7.6921</v>
+      </c>
+      <c r="E163" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="F163" s="0" t="n">
+        <v>33</v>
+      </c>
+      <c r="G163" s="0" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="164" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B164" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C164" s="0" t="n">
+        <v>53.1424</v>
+      </c>
+      <c r="D164" s="0" t="n">
+        <v>-7.6921</v>
+      </c>
+      <c r="E164" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="F164" s="0" t="n">
+        <v>430</v>
+      </c>
+      <c r="G164" s="0" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="165" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B165" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C165" s="0" t="n">
+        <v>53.1424</v>
+      </c>
+      <c r="D165" s="0" t="n">
+        <v>-7.6921</v>
+      </c>
+      <c r="E165" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="F165" s="0" t="n">
+        <v>14</v>
+      </c>
+      <c r="G165" s="0" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="166" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B166" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C166" s="0" t="n">
+        <v>53.1424</v>
+      </c>
+      <c r="D166" s="0" t="n">
+        <v>-7.6921</v>
+      </c>
+      <c r="E166" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="F166" s="0" t="n">
+        <v>527</v>
+      </c>
+      <c r="G166" s="0" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="167" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B167" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C167" s="0" t="n">
+        <v>53.1424</v>
+      </c>
+      <c r="D167" s="0" t="n">
+        <v>-7.6921</v>
+      </c>
+      <c r="E167" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="F167" s="0" t="n">
+        <v>31</v>
+      </c>
+      <c r="G167" s="0" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="168" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B168" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C168" s="0" t="n">
+        <v>53.1424</v>
+      </c>
+      <c r="D168" s="0" t="n">
+        <v>-7.6921</v>
+      </c>
+      <c r="E168" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="F168" s="0" t="n">
+        <v>548</v>
+      </c>
+      <c r="G168" s="0" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="169" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B169" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C169" s="0" t="n">
+        <v>53.1424</v>
+      </c>
+      <c r="D169" s="0" t="n">
+        <v>-7.6921</v>
+      </c>
+      <c r="E169" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="F169" s="0" t="n">
+        <v>41</v>
+      </c>
+      <c r="G169" s="0" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="170" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B170" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C170" s="0" t="n">
+        <v>53.1424</v>
+      </c>
+      <c r="D170" s="0" t="n">
+        <v>-7.6921</v>
+      </c>
+      <c r="E170" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="F170" s="0" t="n">
+        <v>657</v>
+      </c>
+      <c r="G170" s="0" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="171" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B171" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C171" s="0" t="n">
+        <v>53.1424</v>
+      </c>
+      <c r="D171" s="0" t="n">
+        <v>-7.6921</v>
+      </c>
+      <c r="E171" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="F171" s="0" t="n">
+        <v>38</v>
+      </c>
+      <c r="G171" s="0" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="172" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B172" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C172" s="0" t="n">
+        <v>53.1424</v>
+      </c>
+      <c r="D172" s="0" t="n">
+        <v>-7.6921</v>
+      </c>
+      <c r="E172" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="F172" s="0" t="n">
+        <v>629</v>
+      </c>
+      <c r="G172" s="0" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="173" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B173" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C173" s="0" t="n">
+        <v>53.1424</v>
+      </c>
+      <c r="D173" s="0" t="n">
+        <v>-7.6921</v>
+      </c>
+      <c r="E173" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="F173" s="0" t="n">
+        <v>43</v>
+      </c>
+      <c r="G173" s="0" t="s">
+        <v>63</v>
+      </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/data/Ireland.xlsx
+++ b/data/Ireland.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="692" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="752" uniqueCount="106">
   <si>
     <t xml:space="preserve">Province.State</t>
   </si>
@@ -309,6 +309,36 @@
   </si>
   <si>
     <t xml:space="preserve">2020-04-16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-04-17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-04-18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-04-19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-04-20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-04-21</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-04-22</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-04-23</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-04-24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-04-25</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-04-26</t>
   </si>
 </sst>
 </file>
@@ -416,7 +446,7 @@
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.9140625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.9296875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="0" width="13.82"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="7.95"/>
@@ -1545,13 +1575,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G173"/>
+  <dimension ref="A1:G193"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A137" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F172" activeCellId="0" sqref="F172"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A169" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F192" activeCellId="0" sqref="F192"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.9140625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.9296875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="0" width="13.82"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="7.95"/>
@@ -5028,6 +5058,406 @@
         <v>63</v>
       </c>
     </row>
+    <row r="174" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B174" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C174" s="0" t="n">
+        <v>53.1424</v>
+      </c>
+      <c r="D174" s="0" t="n">
+        <v>-7.6921</v>
+      </c>
+      <c r="E174" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="F174" s="0" t="n">
+        <v>597</v>
+      </c>
+      <c r="G174" s="0" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="175" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B175" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C175" s="0" t="n">
+        <v>53.1424</v>
+      </c>
+      <c r="D175" s="0" t="n">
+        <v>-7.6921</v>
+      </c>
+      <c r="E175" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="F175" s="0" t="n">
+        <v>44</v>
+      </c>
+      <c r="G175" s="0" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="176" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B176" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C176" s="0" t="n">
+        <v>53.1424</v>
+      </c>
+      <c r="D176" s="0" t="n">
+        <v>-7.6921</v>
+      </c>
+      <c r="E176" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="F176" s="0" t="n">
+        <v>630</v>
+      </c>
+      <c r="G176" s="0" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="177" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B177" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C177" s="0" t="n">
+        <v>53.1424</v>
+      </c>
+      <c r="D177" s="0" t="n">
+        <v>-7.6921</v>
+      </c>
+      <c r="E177" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="F177" s="0" t="n">
+        <v>41</v>
+      </c>
+      <c r="G177" s="0" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="178" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B178" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C178" s="0" t="n">
+        <v>53.1424</v>
+      </c>
+      <c r="D178" s="0" t="n">
+        <v>-7.6921</v>
+      </c>
+      <c r="E178" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="F178" s="0" t="n">
+        <v>445</v>
+      </c>
+      <c r="G178" s="0" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="179" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B179" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C179" s="0" t="n">
+        <v>53.1424</v>
+      </c>
+      <c r="D179" s="0" t="n">
+        <v>-7.6921</v>
+      </c>
+      <c r="E179" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="F179" s="0" t="n">
+        <v>39</v>
+      </c>
+      <c r="G179" s="0" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="180" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B180" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C180" s="0" t="n">
+        <v>53.1424</v>
+      </c>
+      <c r="D180" s="0" t="n">
+        <v>-7.6921</v>
+      </c>
+      <c r="E180" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="F180" s="0" t="n">
+        <v>401</v>
+      </c>
+      <c r="G180" s="0" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="181" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B181" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C181" s="0" t="n">
+        <v>53.1424</v>
+      </c>
+      <c r="D181" s="0" t="n">
+        <v>-7.6921</v>
+      </c>
+      <c r="E181" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="F181" s="0" t="n">
+        <v>77</v>
+      </c>
+      <c r="G181" s="0" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="182" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B182" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C182" s="0" t="n">
+        <v>53.1424</v>
+      </c>
+      <c r="D182" s="0" t="n">
+        <v>-7.6921</v>
+      </c>
+      <c r="E182" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="F182" s="0" t="n">
+        <v>388</v>
+      </c>
+      <c r="G182" s="0" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="183" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B183" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C183" s="0" t="n">
+        <v>53.1424</v>
+      </c>
+      <c r="D183" s="0" t="n">
+        <v>-7.6921</v>
+      </c>
+      <c r="E183" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="F183" s="0" t="n">
+        <v>44</v>
+      </c>
+      <c r="G183" s="0" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="184" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B184" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C184" s="0" t="n">
+        <v>53.1424</v>
+      </c>
+      <c r="D184" s="0" t="n">
+        <v>-7.6921</v>
+      </c>
+      <c r="E184" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="F184" s="0" t="n">
+        <v>631</v>
+      </c>
+      <c r="G184" s="0" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="185" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B185" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C185" s="0" t="n">
+        <v>53.1424</v>
+      </c>
+      <c r="D185" s="0" t="n">
+        <v>-7.6921</v>
+      </c>
+      <c r="E185" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="F185" s="0" t="n">
+        <v>49</v>
+      </c>
+      <c r="G185" s="0" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="186" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B186" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C186" s="0" t="n">
+        <v>53.1424</v>
+      </c>
+      <c r="D186" s="0" t="n">
+        <v>-7.6921</v>
+      </c>
+      <c r="E186" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="F186" s="0" t="n">
+        <v>936</v>
+      </c>
+      <c r="G186" s="0" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="187" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B187" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C187" s="0" t="n">
+        <v>53.1424</v>
+      </c>
+      <c r="D187" s="0" t="n">
+        <v>-7.6921</v>
+      </c>
+      <c r="E187" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="F187" s="0" t="n">
+        <v>28</v>
+      </c>
+      <c r="G187" s="0" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="188" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B188" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C188" s="0" t="n">
+        <v>53.1424</v>
+      </c>
+      <c r="D188" s="0" t="n">
+        <v>-7.6921</v>
+      </c>
+      <c r="E188" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="F188" s="0" t="n">
+        <v>577</v>
+      </c>
+      <c r="G188" s="0" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="189" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B189" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C189" s="0" t="n">
+        <v>53.1424</v>
+      </c>
+      <c r="D189" s="0" t="n">
+        <v>-7.6921</v>
+      </c>
+      <c r="E189" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="F189" s="0" t="n">
+        <v>37</v>
+      </c>
+      <c r="G189" s="0" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="190" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B190" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C190" s="0" t="n">
+        <v>53.1424</v>
+      </c>
+      <c r="D190" s="0" t="n">
+        <v>-7.6921</v>
+      </c>
+      <c r="E190" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="F190" s="0" t="n">
+        <v>377</v>
+      </c>
+      <c r="G190" s="0" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="191" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B191" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C191" s="0" t="n">
+        <v>53.1424</v>
+      </c>
+      <c r="D191" s="0" t="n">
+        <v>-7.6921</v>
+      </c>
+      <c r="E191" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="F191" s="0" t="n">
+        <v>42</v>
+      </c>
+      <c r="G191" s="0" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="192" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B192" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C192" s="0" t="n">
+        <v>53.1424</v>
+      </c>
+      <c r="D192" s="0" t="n">
+        <v>-7.6921</v>
+      </c>
+      <c r="E192" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="F192" s="0" t="n">
+        <v>701</v>
+      </c>
+      <c r="G192" s="0" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="193" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B193" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C193" s="0" t="n">
+        <v>53.1424</v>
+      </c>
+      <c r="D193" s="0" t="n">
+        <v>-7.6921</v>
+      </c>
+      <c r="E193" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="F193" s="0" t="n">
+        <v>26</v>
+      </c>
+      <c r="G193" s="0" t="s">
+        <v>63</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>

--- a/data/Ireland.xlsx
+++ b/data/Ireland.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="752" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="764" uniqueCount="108">
   <si>
     <t xml:space="preserve">Province.State</t>
   </si>
@@ -339,6 +339,12 @@
   </si>
   <si>
     <t xml:space="preserve">2020-04-26</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-04-27</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-04-28</t>
   </si>
 </sst>
 </file>
@@ -446,7 +452,7 @@
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.9296875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.94140625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="0" width="13.82"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="7.95"/>
@@ -1575,13 +1581,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G193"/>
+  <dimension ref="A1:G197"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A169" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F192" activeCellId="0" sqref="F192"/>
+      <selection pane="topLeft" activeCell="F198" activeCellId="0" sqref="F198"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.9296875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.94140625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="0" width="13.82"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="7.95"/>
@@ -5458,6 +5464,86 @@
         <v>63</v>
       </c>
     </row>
+    <row r="194" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B194" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C194" s="0" t="n">
+        <v>53.1424</v>
+      </c>
+      <c r="D194" s="0" t="n">
+        <v>-7.6921</v>
+      </c>
+      <c r="E194" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="F194" s="0" t="n">
+        <v>386</v>
+      </c>
+      <c r="G194" s="0" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="195" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B195" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C195" s="0" t="n">
+        <v>53.1424</v>
+      </c>
+      <c r="D195" s="0" t="n">
+        <v>-7.6921</v>
+      </c>
+      <c r="E195" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="F195" s="0" t="n">
+        <v>18</v>
+      </c>
+      <c r="G195" s="0" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="196" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B196" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C196" s="0" t="n">
+        <v>53.1424</v>
+      </c>
+      <c r="D196" s="0" t="n">
+        <v>-7.6921</v>
+      </c>
+      <c r="E196" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="F196" s="0" t="n">
+        <v>229</v>
+      </c>
+      <c r="G196" s="0" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="197" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B197" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C197" s="0" t="n">
+        <v>53.1424</v>
+      </c>
+      <c r="D197" s="0" t="n">
+        <v>-7.6921</v>
+      </c>
+      <c r="E197" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="F197" s="0" t="n">
+        <v>59</v>
+      </c>
+      <c r="G197" s="0" t="s">
+        <v>63</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>

--- a/data/Ireland.xlsx
+++ b/data/Ireland.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="764" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="845" uniqueCount="121">
   <si>
     <t xml:space="preserve">Province.State</t>
   </si>
@@ -345,6 +345,45 @@
   </si>
   <si>
     <t xml:space="preserve">2020-04-28</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-04-29</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-04-30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-05-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-05-02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-05-03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-05-04</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-05-05</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-05-06</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-05-07</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-05-08</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-05-09</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-05-10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-05-11</t>
   </si>
 </sst>
 </file>
@@ -452,7 +491,7 @@
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.94140625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.95703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="0" width="13.82"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="7.95"/>
@@ -1570,8 +1609,8 @@
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+    <oddHeader>&amp;C&amp;"Times New Roman,Standaard"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Standaard"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
@@ -1581,13 +1620,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G197"/>
+  <dimension ref="A1:G226"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A169" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F198" activeCellId="0" sqref="F198"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A196" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D227" activeCellId="0" sqref="D227"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.94140625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.95703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="0" width="13.82"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="7.95"/>
@@ -4555,13 +4594,13 @@
         <v>-7.6921</v>
       </c>
       <c r="E148" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F148" s="0" t="n">
-        <v>331</v>
+        <v>43</v>
       </c>
       <c r="G148" s="0" t="s">
-        <v>9</v>
+        <v>63</v>
       </c>
     </row>
     <row r="149" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4578,10 +4617,10 @@
         <v>83</v>
       </c>
       <c r="F149" s="0" t="n">
-        <v>17</v>
+        <v>331</v>
       </c>
       <c r="G149" s="0" t="s">
-        <v>63</v>
+        <v>9</v>
       </c>
     </row>
     <row r="150" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4595,13 +4634,13 @@
         <v>-7.6921</v>
       </c>
       <c r="E150" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F150" s="0" t="n">
-        <v>390</v>
+        <v>17</v>
       </c>
       <c r="G150" s="0" t="s">
-        <v>9</v>
+        <v>63</v>
       </c>
     </row>
     <row r="151" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4618,10 +4657,10 @@
         <v>84</v>
       </c>
       <c r="F151" s="0" t="n">
-        <v>21</v>
+        <v>390</v>
       </c>
       <c r="G151" s="0" t="s">
-        <v>63</v>
+        <v>9</v>
       </c>
     </row>
     <row r="152" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4635,13 +4674,13 @@
         <v>-7.6921</v>
       </c>
       <c r="E152" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F152" s="0" t="n">
-        <v>370</v>
+        <v>21</v>
       </c>
       <c r="G152" s="0" t="s">
-        <v>9</v>
+        <v>63</v>
       </c>
     </row>
     <row r="153" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4658,10 +4697,10 @@
         <v>85</v>
       </c>
       <c r="F153" s="0" t="n">
-        <v>16</v>
+        <v>370</v>
       </c>
       <c r="G153" s="0" t="s">
-        <v>63</v>
+        <v>9</v>
       </c>
     </row>
     <row r="154" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4675,13 +4714,13 @@
         <v>-7.6921</v>
       </c>
       <c r="E154" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F154" s="0" t="n">
-        <v>345</v>
+        <v>16</v>
       </c>
       <c r="G154" s="0" t="s">
-        <v>9</v>
+        <v>63</v>
       </c>
     </row>
     <row r="155" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4698,10 +4737,10 @@
         <v>86</v>
       </c>
       <c r="F155" s="0" t="n">
-        <v>36</v>
+        <v>345</v>
       </c>
       <c r="G155" s="0" t="s">
-        <v>63</v>
+        <v>9</v>
       </c>
     </row>
     <row r="156" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4715,13 +4754,13 @@
         <v>-7.6921</v>
       </c>
       <c r="E156" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F156" s="0" t="n">
-        <v>365</v>
+        <v>36</v>
       </c>
       <c r="G156" s="0" t="s">
-        <v>9</v>
+        <v>63</v>
       </c>
     </row>
     <row r="157" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4738,10 +4777,10 @@
         <v>87</v>
       </c>
       <c r="F157" s="0" t="n">
-        <v>25</v>
+        <v>365</v>
       </c>
       <c r="G157" s="0" t="s">
-        <v>63</v>
+        <v>9</v>
       </c>
     </row>
     <row r="158" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4755,13 +4794,13 @@
         <v>-7.6921</v>
       </c>
       <c r="E158" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F158" s="0" t="n">
-        <v>500</v>
+        <v>25</v>
       </c>
       <c r="G158" s="0" t="s">
-        <v>9</v>
+        <v>63</v>
       </c>
     </row>
     <row r="159" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4778,10 +4817,10 @@
         <v>88</v>
       </c>
       <c r="F159" s="0" t="n">
-        <v>28</v>
+        <v>500</v>
       </c>
       <c r="G159" s="0" t="s">
-        <v>63</v>
+        <v>9</v>
       </c>
     </row>
     <row r="160" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4795,13 +4834,13 @@
         <v>-7.6921</v>
       </c>
       <c r="E160" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F160" s="0" t="n">
-        <v>480</v>
+        <v>28</v>
       </c>
       <c r="G160" s="0" t="s">
-        <v>9</v>
+        <v>63</v>
       </c>
     </row>
     <row r="161" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4818,10 +4857,10 @@
         <v>89</v>
       </c>
       <c r="F161" s="0" t="n">
-        <v>26</v>
+        <v>480</v>
       </c>
       <c r="G161" s="0" t="s">
-        <v>63</v>
+        <v>9</v>
       </c>
     </row>
     <row r="162" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4835,13 +4874,13 @@
         <v>-7.6921</v>
       </c>
       <c r="E162" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F162" s="0" t="n">
-        <v>553</v>
+        <v>26</v>
       </c>
       <c r="G162" s="0" t="s">
-        <v>9</v>
+        <v>63</v>
       </c>
     </row>
     <row r="163" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4858,10 +4897,10 @@
         <v>90</v>
       </c>
       <c r="F163" s="0" t="n">
-        <v>33</v>
+        <v>553</v>
       </c>
       <c r="G163" s="0" t="s">
-        <v>63</v>
+        <v>9</v>
       </c>
     </row>
     <row r="164" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4875,13 +4914,13 @@
         <v>-7.6921</v>
       </c>
       <c r="E164" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F164" s="0" t="n">
-        <v>430</v>
+        <v>33</v>
       </c>
       <c r="G164" s="0" t="s">
-        <v>9</v>
+        <v>63</v>
       </c>
     </row>
     <row r="165" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4898,10 +4937,10 @@
         <v>91</v>
       </c>
       <c r="F165" s="0" t="n">
-        <v>14</v>
+        <v>430</v>
       </c>
       <c r="G165" s="0" t="s">
-        <v>63</v>
+        <v>9</v>
       </c>
     </row>
     <row r="166" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4915,13 +4954,13 @@
         <v>-7.6921</v>
       </c>
       <c r="E166" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F166" s="0" t="n">
-        <v>527</v>
+        <v>14</v>
       </c>
       <c r="G166" s="0" t="s">
-        <v>9</v>
+        <v>63</v>
       </c>
     </row>
     <row r="167" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4938,10 +4977,10 @@
         <v>92</v>
       </c>
       <c r="F167" s="0" t="n">
-        <v>31</v>
+        <v>527</v>
       </c>
       <c r="G167" s="0" t="s">
-        <v>63</v>
+        <v>9</v>
       </c>
     </row>
     <row r="168" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4955,13 +4994,13 @@
         <v>-7.6921</v>
       </c>
       <c r="E168" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F168" s="0" t="n">
-        <v>548</v>
+        <v>31</v>
       </c>
       <c r="G168" s="0" t="s">
-        <v>9</v>
+        <v>63</v>
       </c>
     </row>
     <row r="169" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4978,10 +5017,10 @@
         <v>93</v>
       </c>
       <c r="F169" s="0" t="n">
-        <v>41</v>
+        <v>548</v>
       </c>
       <c r="G169" s="0" t="s">
-        <v>63</v>
+        <v>9</v>
       </c>
     </row>
     <row r="170" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4995,13 +5034,13 @@
         <v>-7.6921</v>
       </c>
       <c r="E170" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F170" s="0" t="n">
-        <v>657</v>
+        <v>41</v>
       </c>
       <c r="G170" s="0" t="s">
-        <v>9</v>
+        <v>63</v>
       </c>
     </row>
     <row r="171" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5018,10 +5057,10 @@
         <v>94</v>
       </c>
       <c r="F171" s="0" t="n">
-        <v>38</v>
+        <v>657</v>
       </c>
       <c r="G171" s="0" t="s">
-        <v>63</v>
+        <v>9</v>
       </c>
     </row>
     <row r="172" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5035,13 +5074,13 @@
         <v>-7.6921</v>
       </c>
       <c r="E172" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F172" s="0" t="n">
-        <v>629</v>
+        <v>38</v>
       </c>
       <c r="G172" s="0" t="s">
-        <v>9</v>
+        <v>63</v>
       </c>
     </row>
     <row r="173" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5058,10 +5097,10 @@
         <v>95</v>
       </c>
       <c r="F173" s="0" t="n">
-        <v>43</v>
+        <v>629</v>
       </c>
       <c r="G173" s="0" t="s">
-        <v>63</v>
+        <v>9</v>
       </c>
     </row>
     <row r="174" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5075,13 +5114,13 @@
         <v>-7.6921</v>
       </c>
       <c r="E174" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F174" s="0" t="n">
-        <v>597</v>
+        <v>43</v>
       </c>
       <c r="G174" s="0" t="s">
-        <v>9</v>
+        <v>63</v>
       </c>
     </row>
     <row r="175" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5098,10 +5137,10 @@
         <v>96</v>
       </c>
       <c r="F175" s="0" t="n">
-        <v>44</v>
+        <v>597</v>
       </c>
       <c r="G175" s="0" t="s">
-        <v>63</v>
+        <v>9</v>
       </c>
     </row>
     <row r="176" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5115,13 +5154,13 @@
         <v>-7.6921</v>
       </c>
       <c r="E176" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F176" s="0" t="n">
-        <v>630</v>
+        <v>44</v>
       </c>
       <c r="G176" s="0" t="s">
-        <v>9</v>
+        <v>63</v>
       </c>
     </row>
     <row r="177" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5138,10 +5177,10 @@
         <v>97</v>
       </c>
       <c r="F177" s="0" t="n">
-        <v>41</v>
+        <v>630</v>
       </c>
       <c r="G177" s="0" t="s">
-        <v>63</v>
+        <v>9</v>
       </c>
     </row>
     <row r="178" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5155,13 +5194,13 @@
         <v>-7.6921</v>
       </c>
       <c r="E178" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F178" s="0" t="n">
-        <v>445</v>
+        <v>41</v>
       </c>
       <c r="G178" s="0" t="s">
-        <v>9</v>
+        <v>63</v>
       </c>
     </row>
     <row r="179" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5178,10 +5217,10 @@
         <v>98</v>
       </c>
       <c r="F179" s="0" t="n">
-        <v>39</v>
+        <v>445</v>
       </c>
       <c r="G179" s="0" t="s">
-        <v>63</v>
+        <v>9</v>
       </c>
     </row>
     <row r="180" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5195,13 +5234,13 @@
         <v>-7.6921</v>
       </c>
       <c r="E180" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F180" s="0" t="n">
-        <v>401</v>
+        <v>39</v>
       </c>
       <c r="G180" s="0" t="s">
-        <v>9</v>
+        <v>63</v>
       </c>
     </row>
     <row r="181" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5218,10 +5257,10 @@
         <v>99</v>
       </c>
       <c r="F181" s="0" t="n">
-        <v>77</v>
+        <v>401</v>
       </c>
       <c r="G181" s="0" t="s">
-        <v>63</v>
+        <v>9</v>
       </c>
     </row>
     <row r="182" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5235,13 +5274,13 @@
         <v>-7.6921</v>
       </c>
       <c r="E182" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F182" s="0" t="n">
-        <v>388</v>
+        <v>77</v>
       </c>
       <c r="G182" s="0" t="s">
-        <v>9</v>
+        <v>63</v>
       </c>
     </row>
     <row r="183" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5258,10 +5297,10 @@
         <v>100</v>
       </c>
       <c r="F183" s="0" t="n">
-        <v>44</v>
+        <v>388</v>
       </c>
       <c r="G183" s="0" t="s">
-        <v>63</v>
+        <v>9</v>
       </c>
     </row>
     <row r="184" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5275,13 +5314,13 @@
         <v>-7.6921</v>
       </c>
       <c r="E184" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F184" s="0" t="n">
-        <v>631</v>
+        <v>44</v>
       </c>
       <c r="G184" s="0" t="s">
-        <v>9</v>
+        <v>63</v>
       </c>
     </row>
     <row r="185" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5298,10 +5337,10 @@
         <v>101</v>
       </c>
       <c r="F185" s="0" t="n">
-        <v>49</v>
+        <v>631</v>
       </c>
       <c r="G185" s="0" t="s">
-        <v>63</v>
+        <v>9</v>
       </c>
     </row>
     <row r="186" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5315,13 +5354,13 @@
         <v>-7.6921</v>
       </c>
       <c r="E186" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F186" s="0" t="n">
-        <v>936</v>
+        <v>49</v>
       </c>
       <c r="G186" s="0" t="s">
-        <v>9</v>
+        <v>63</v>
       </c>
     </row>
     <row r="187" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5338,10 +5377,10 @@
         <v>102</v>
       </c>
       <c r="F187" s="0" t="n">
-        <v>28</v>
+        <v>936</v>
       </c>
       <c r="G187" s="0" t="s">
-        <v>63</v>
+        <v>9</v>
       </c>
     </row>
     <row r="188" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5355,13 +5394,13 @@
         <v>-7.6921</v>
       </c>
       <c r="E188" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F188" s="0" t="n">
-        <v>577</v>
+        <v>28</v>
       </c>
       <c r="G188" s="0" t="s">
-        <v>9</v>
+        <v>63</v>
       </c>
     </row>
     <row r="189" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5378,10 +5417,10 @@
         <v>103</v>
       </c>
       <c r="F189" s="0" t="n">
-        <v>37</v>
+        <v>577</v>
       </c>
       <c r="G189" s="0" t="s">
-        <v>63</v>
+        <v>9</v>
       </c>
     </row>
     <row r="190" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5395,13 +5434,13 @@
         <v>-7.6921</v>
       </c>
       <c r="E190" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F190" s="0" t="n">
-        <v>377</v>
+        <v>37</v>
       </c>
       <c r="G190" s="0" t="s">
-        <v>9</v>
+        <v>63</v>
       </c>
     </row>
     <row r="191" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5418,10 +5457,10 @@
         <v>104</v>
       </c>
       <c r="F191" s="0" t="n">
-        <v>42</v>
+        <v>377</v>
       </c>
       <c r="G191" s="0" t="s">
-        <v>63</v>
+        <v>9</v>
       </c>
     </row>
     <row r="192" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5435,13 +5474,13 @@
         <v>-7.6921</v>
       </c>
       <c r="E192" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F192" s="0" t="n">
-        <v>701</v>
+        <v>42</v>
       </c>
       <c r="G192" s="0" t="s">
-        <v>9</v>
+        <v>63</v>
       </c>
     </row>
     <row r="193" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5458,10 +5497,10 @@
         <v>105</v>
       </c>
       <c r="F193" s="0" t="n">
-        <v>26</v>
+        <v>701</v>
       </c>
       <c r="G193" s="0" t="s">
-        <v>63</v>
+        <v>9</v>
       </c>
     </row>
     <row r="194" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5475,13 +5514,13 @@
         <v>-7.6921</v>
       </c>
       <c r="E194" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F194" s="0" t="n">
-        <v>386</v>
+        <v>26</v>
       </c>
       <c r="G194" s="0" t="s">
-        <v>9</v>
+        <v>63</v>
       </c>
     </row>
     <row r="195" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5498,10 +5537,10 @@
         <v>106</v>
       </c>
       <c r="F195" s="0" t="n">
-        <v>18</v>
+        <v>386</v>
       </c>
       <c r="G195" s="0" t="s">
-        <v>63</v>
+        <v>9</v>
       </c>
     </row>
     <row r="196" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5515,13 +5554,13 @@
         <v>-7.6921</v>
       </c>
       <c r="E196" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F196" s="0" t="n">
-        <v>229</v>
+        <v>18</v>
       </c>
       <c r="G196" s="0" t="s">
-        <v>9</v>
+        <v>63</v>
       </c>
     </row>
     <row r="197" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5538,19 +5577,565 @@
         <v>107</v>
       </c>
       <c r="F197" s="0" t="n">
+        <v>229</v>
+      </c>
+      <c r="G197" s="0" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="198" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B198" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C198" s="0" t="n">
+        <v>53.1424</v>
+      </c>
+      <c r="D198" s="0" t="n">
+        <v>-7.6921</v>
+      </c>
+      <c r="E198" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="F198" s="0" t="n">
         <v>59</v>
       </c>
-      <c r="G197" s="0" t="s">
-        <v>63</v>
-      </c>
+      <c r="G198" s="0" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="199" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B199" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C199" s="0" t="n">
+        <v>53.1424</v>
+      </c>
+      <c r="D199" s="0" t="n">
+        <v>-7.6921</v>
+      </c>
+      <c r="E199" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="F199" s="0" t="n">
+        <v>376</v>
+      </c>
+      <c r="G199" s="0" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="200" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B200" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C200" s="0" t="n">
+        <v>53.1424</v>
+      </c>
+      <c r="D200" s="0" t="n">
+        <v>-7.6921</v>
+      </c>
+      <c r="E200" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="F200" s="0" t="n">
+        <v>31</v>
+      </c>
+      <c r="G200" s="0" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="201" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B201" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C201" s="0" t="n">
+        <v>53.1424</v>
+      </c>
+      <c r="D201" s="0" t="n">
+        <v>-7.6921</v>
+      </c>
+      <c r="E201" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="F201" s="0" t="n">
+        <v>43</v>
+      </c>
+      <c r="G201" s="0" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="202" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B202" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C202" s="0" t="n">
+        <v>53.1424</v>
+      </c>
+      <c r="D202" s="0" t="n">
+        <v>-7.6921</v>
+      </c>
+      <c r="E202" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="F202" s="0" t="n">
+        <v>359</v>
+      </c>
+      <c r="G202" s="0" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="203" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B203" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C203" s="0" t="n">
+        <v>53.1424</v>
+      </c>
+      <c r="D203" s="0" t="n">
+        <v>-7.6921</v>
+      </c>
+      <c r="E203" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="F203" s="0" t="n">
+        <v>221</v>
+      </c>
+      <c r="G203" s="0" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="204" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B204" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C204" s="0" t="n">
+        <v>53.1424</v>
+      </c>
+      <c r="D204" s="0" t="n">
+        <v>-7.6921</v>
+      </c>
+      <c r="E204" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="F204" s="0" t="n">
+        <v>34</v>
+      </c>
+      <c r="G204" s="0" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="205" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B205" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C205" s="0" t="n">
+        <v>53.1424</v>
+      </c>
+      <c r="D205" s="0" t="n">
+        <v>-7.6921</v>
+      </c>
+      <c r="E205" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="F205" s="0" t="n">
+        <v>343</v>
+      </c>
+      <c r="G205" s="0" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="206" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B206" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C206" s="0" t="n">
+        <v>53.1424</v>
+      </c>
+      <c r="D206" s="0" t="n">
+        <v>-7.6921</v>
+      </c>
+      <c r="E206" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="F206" s="0" t="n">
+        <v>25</v>
+      </c>
+      <c r="G206" s="0" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="207" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B207" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C207" s="0" t="n">
+        <v>53.1424</v>
+      </c>
+      <c r="D207" s="0" t="n">
+        <v>-7.6921</v>
+      </c>
+      <c r="E207" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="F207" s="0" t="n">
+        <v>330</v>
+      </c>
+      <c r="G207" s="0" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="208" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B208" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C208" s="0" t="n">
+        <v>53.1424</v>
+      </c>
+      <c r="D208" s="0" t="n">
+        <v>-7.6921</v>
+      </c>
+      <c r="E208" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="F208" s="0" t="n">
+        <v>19</v>
+      </c>
+      <c r="G208" s="0" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="209" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B209" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C209" s="0" t="n">
+        <v>53.1424</v>
+      </c>
+      <c r="D209" s="0" t="n">
+        <v>-7.6921</v>
+      </c>
+      <c r="E209" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="F209" s="0" t="n">
+        <v>266</v>
+      </c>
+      <c r="G209" s="0" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="210" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B210" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C210" s="0" t="n">
+        <v>53.1424</v>
+      </c>
+      <c r="D210" s="0" t="n">
+        <v>-7.6921</v>
+      </c>
+      <c r="E210" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="F210" s="0" t="n">
+        <v>16</v>
+      </c>
+      <c r="G210" s="0" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="211" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B211" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C211" s="0" t="n">
+        <v>53.1424</v>
+      </c>
+      <c r="D211" s="0" t="n">
+        <v>-7.6921</v>
+      </c>
+      <c r="E211" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="F211" s="0" t="n">
+        <v>211</v>
+      </c>
+      <c r="G211" s="0" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="212" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B212" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C212" s="0" t="n">
+        <v>53.1424</v>
+      </c>
+      <c r="D212" s="0" t="n">
+        <v>-7.6921</v>
+      </c>
+      <c r="E212" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="F212" s="0" t="n">
+        <v>23</v>
+      </c>
+      <c r="G212" s="0" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="213" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B213" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C213" s="0" t="n">
+        <v>53.1424</v>
+      </c>
+      <c r="D213" s="0" t="n">
+        <v>-7.6921</v>
+      </c>
+      <c r="E213" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="F213" s="0" t="n">
+        <v>265</v>
+      </c>
+      <c r="G213" s="0" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="214" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B214" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C214" s="0" t="n">
+        <v>53.1424</v>
+      </c>
+      <c r="D214" s="0" t="n">
+        <v>-7.6921</v>
+      </c>
+      <c r="E214" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="F214" s="0" t="n">
+        <v>37</v>
+      </c>
+      <c r="G214" s="0" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="215" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B215" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C215" s="0" t="n">
+        <v>53.1424</v>
+      </c>
+      <c r="D215" s="0" t="n">
+        <v>-7.6921</v>
+      </c>
+      <c r="E215" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="F215" s="0" t="n">
+        <v>137</v>
+      </c>
+      <c r="G215" s="0" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="216" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B216" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C216" s="0" t="n">
+        <v>53.1424</v>
+      </c>
+      <c r="D216" s="0" t="n">
+        <v>-7.6921</v>
+      </c>
+      <c r="E216" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="F216" s="0" t="n">
+        <v>29</v>
+      </c>
+      <c r="G216" s="0" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="217" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B217" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C217" s="0" t="n">
+        <v>53.1424</v>
+      </c>
+      <c r="D217" s="0" t="n">
+        <v>-7.6921</v>
+      </c>
+      <c r="E217" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="F217" s="0" t="n">
+        <v>156</v>
+      </c>
+      <c r="G217" s="0" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="218" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B218" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C218" s="0" t="n">
+        <v>53.1424</v>
+      </c>
+      <c r="D218" s="0" t="n">
+        <v>-7.6921</v>
+      </c>
+      <c r="E218" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="F218" s="0" t="n">
+        <v>27</v>
+      </c>
+      <c r="G218" s="0" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="219" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B219" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C219" s="0" t="n">
+        <v>53.1424</v>
+      </c>
+      <c r="D219" s="0" t="n">
+        <v>-7.6921</v>
+      </c>
+      <c r="E219" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="F219" s="0" t="n">
+        <v>219</v>
+      </c>
+      <c r="G219" s="0" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="220" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B220" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C220" s="0" t="n">
+        <v>53.1424</v>
+      </c>
+      <c r="D220" s="0" t="n">
+        <v>-7.6921</v>
+      </c>
+      <c r="E220" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="F220" s="0" t="n">
+        <v>18</v>
+      </c>
+      <c r="G220" s="0" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="221" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B221" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C221" s="0" t="n">
+        <v>53.1424</v>
+      </c>
+      <c r="D221" s="0" t="n">
+        <v>-7.6921</v>
+      </c>
+      <c r="E221" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="F221" s="0" t="n">
+        <v>236</v>
+      </c>
+      <c r="G221" s="0" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="222" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B222" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C222" s="0" t="n">
+        <v>53.1424</v>
+      </c>
+      <c r="D222" s="0" t="n">
+        <v>-7.6921</v>
+      </c>
+      <c r="E222" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="F222" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="G222" s="0" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="223" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B223" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C223" s="0" t="n">
+        <v>53.1424</v>
+      </c>
+      <c r="D223" s="0" t="n">
+        <v>-7.6921</v>
+      </c>
+      <c r="E223" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="F223" s="0" t="n">
+        <v>139</v>
+      </c>
+      <c r="G223" s="0" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="224" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B224" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C224" s="0" t="n">
+        <v>53.1424</v>
+      </c>
+      <c r="D224" s="0" t="n">
+        <v>-7.6921</v>
+      </c>
+      <c r="E224" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="F224" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="G224" s="0" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="225" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E225" s="1"/>
+    </row>
+    <row r="226" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E226" s="1"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+    <oddHeader>&amp;C&amp;"Times New Roman,Standaard"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Standaard"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
--- a/data/Ireland.xlsx
+++ b/data/Ireland.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="845" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="845" uniqueCount="125">
   <si>
     <t xml:space="preserve">Province.State</t>
   </si>
@@ -210,6 +210,18 @@
   </si>
   <si>
     <t xml:space="preserve">2020-03-15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">province</t>
+  </si>
+  <si>
+    <t xml:space="preserve">country</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lat</t>
+  </si>
+  <si>
+    <t xml:space="preserve">long</t>
   </si>
   <si>
     <t xml:space="preserve">death</t>
@@ -491,7 +503,7 @@
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.95703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.9765625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="0" width="13.82"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="7.95"/>
@@ -1622,16 +1634,16 @@
   </sheetPr>
   <dimension ref="A1:G226"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A196" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D227" activeCellId="0" sqref="D227"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E2" activeCellId="0" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.95703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.9765625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="0" width="13.82"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="7.95"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="7.54"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="10.46"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="10.46"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="0" width="13.82"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="7.95"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="7.54"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="6.42"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="9.47"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="8" style="0" width="13.82"/>
@@ -1642,19 +1654,19 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>1</v>
+        <v>63</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>2</v>
+        <v>64</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>3</v>
+        <v>65</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>4</v>
+        <v>66</v>
       </c>
       <c r="F1" s="0" t="s">
         <v>5</v>
@@ -1664,1537 +1676,1537 @@
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B2" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" s="0" t="n">
-        <v>53.1424</v>
+      <c r="A2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="0" t="s">
+        <v>7</v>
       </c>
       <c r="D2" s="0" t="n">
-        <v>-7.6921</v>
-      </c>
-      <c r="E2" s="1" t="s">
+        <v>53.1424</v>
+      </c>
+      <c r="E2" s="0" t="n">
+        <v>-7.6921</v>
+      </c>
+      <c r="F2" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" s="0" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="G2" s="0" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B3" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="0" t="n">
-        <v>53.1424</v>
+      <c r="C3" s="0" t="s">
+        <v>7</v>
       </c>
       <c r="D3" s="0" t="n">
-        <v>-7.6921</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>8</v>
+        <v>53.1424</v>
+      </c>
+      <c r="E3" s="0" t="n">
+        <v>-7.6921</v>
       </c>
       <c r="F3" s="0" t="n">
         <v>0</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B4" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="0" t="n">
-        <v>53.1424</v>
+      <c r="A4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>7</v>
       </c>
       <c r="D4" s="0" t="n">
-        <v>-7.6921</v>
-      </c>
-      <c r="E4" s="1" t="s">
+        <v>53.1424</v>
+      </c>
+      <c r="E4" s="0" t="n">
+        <v>-7.6921</v>
+      </c>
+      <c r="F4" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" s="0" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F4" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="G4" s="0" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B5" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" s="0" t="n">
-        <v>53.1424</v>
+      <c r="C5" s="0" t="s">
+        <v>7</v>
       </c>
       <c r="D5" s="0" t="n">
-        <v>-7.6921</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>10</v>
+        <v>53.1424</v>
+      </c>
+      <c r="E5" s="0" t="n">
+        <v>-7.6921</v>
       </c>
       <c r="F5" s="0" t="n">
         <v>0</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B6" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6" s="0" t="n">
-        <v>53.1424</v>
+      <c r="A6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>7</v>
       </c>
       <c r="D6" s="0" t="n">
-        <v>-7.6921</v>
-      </c>
-      <c r="E6" s="1" t="s">
+        <v>53.1424</v>
+      </c>
+      <c r="E6" s="0" t="n">
+        <v>-7.6921</v>
+      </c>
+      <c r="F6" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" s="0" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F6" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="G6" s="0" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B7" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="C7" s="0" t="n">
-        <v>53.1424</v>
+      <c r="C7" s="0" t="s">
+        <v>7</v>
       </c>
       <c r="D7" s="0" t="n">
-        <v>-7.6921</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>11</v>
+        <v>53.1424</v>
+      </c>
+      <c r="E7" s="0" t="n">
+        <v>-7.6921</v>
       </c>
       <c r="F7" s="0" t="n">
         <v>0</v>
       </c>
       <c r="G7" s="0" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B8" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="C8" s="0" t="n">
-        <v>53.1424</v>
+      <c r="A8" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" s="0" t="s">
+        <v>7</v>
       </c>
       <c r="D8" s="0" t="n">
-        <v>-7.6921</v>
-      </c>
-      <c r="E8" s="1" t="s">
+        <v>53.1424</v>
+      </c>
+      <c r="E8" s="0" t="n">
+        <v>-7.6921</v>
+      </c>
+      <c r="F8" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" s="0" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F8" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="G8" s="0" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B9" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="C9" s="0" t="n">
-        <v>53.1424</v>
+      <c r="C9" s="0" t="s">
+        <v>7</v>
       </c>
       <c r="D9" s="0" t="n">
-        <v>-7.6921</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>12</v>
+        <v>53.1424</v>
+      </c>
+      <c r="E9" s="0" t="n">
+        <v>-7.6921</v>
       </c>
       <c r="F9" s="0" t="n">
         <v>0</v>
       </c>
       <c r="G9" s="0" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B10" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="C10" s="0" t="n">
-        <v>53.1424</v>
+      <c r="A10" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10" s="0" t="s">
+        <v>7</v>
       </c>
       <c r="D10" s="0" t="n">
-        <v>-7.6921</v>
-      </c>
-      <c r="E10" s="1" t="s">
+        <v>53.1424</v>
+      </c>
+      <c r="E10" s="0" t="n">
+        <v>-7.6921</v>
+      </c>
+      <c r="F10" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G10" s="0" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F10" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="G10" s="0" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B11" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="C11" s="0" t="n">
-        <v>53.1424</v>
+      <c r="C11" s="0" t="s">
+        <v>7</v>
       </c>
       <c r="D11" s="0" t="n">
-        <v>-7.6921</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>13</v>
+        <v>53.1424</v>
+      </c>
+      <c r="E11" s="0" t="n">
+        <v>-7.6921</v>
       </c>
       <c r="F11" s="0" t="n">
         <v>0</v>
       </c>
       <c r="G11" s="0" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B12" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="C12" s="0" t="n">
-        <v>53.1424</v>
+      <c r="A12" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C12" s="0" t="s">
+        <v>7</v>
       </c>
       <c r="D12" s="0" t="n">
-        <v>-7.6921</v>
-      </c>
-      <c r="E12" s="1" t="s">
+        <v>53.1424</v>
+      </c>
+      <c r="E12" s="0" t="n">
+        <v>-7.6921</v>
+      </c>
+      <c r="F12" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G12" s="0" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F12" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="G12" s="0" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B13" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="C13" s="0" t="n">
-        <v>53.1424</v>
+      <c r="C13" s="0" t="s">
+        <v>7</v>
       </c>
       <c r="D13" s="0" t="n">
-        <v>-7.6921</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>14</v>
+        <v>53.1424</v>
+      </c>
+      <c r="E13" s="0" t="n">
+        <v>-7.6921</v>
       </c>
       <c r="F13" s="0" t="n">
         <v>0</v>
       </c>
       <c r="G13" s="0" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B14" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="C14" s="0" t="n">
-        <v>53.1424</v>
+      <c r="A14" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C14" s="0" t="s">
+        <v>7</v>
       </c>
       <c r="D14" s="0" t="n">
-        <v>-7.6921</v>
-      </c>
-      <c r="E14" s="1" t="s">
+        <v>53.1424</v>
+      </c>
+      <c r="E14" s="0" t="n">
+        <v>-7.6921</v>
+      </c>
+      <c r="F14" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G14" s="0" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F14" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="G14" s="0" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B15" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="C15" s="0" t="n">
-        <v>53.1424</v>
+      <c r="C15" s="0" t="s">
+        <v>7</v>
       </c>
       <c r="D15" s="0" t="n">
-        <v>-7.6921</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>15</v>
+        <v>53.1424</v>
+      </c>
+      <c r="E15" s="0" t="n">
+        <v>-7.6921</v>
       </c>
       <c r="F15" s="0" t="n">
         <v>0</v>
       </c>
       <c r="G15" s="0" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B16" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="C16" s="0" t="n">
-        <v>53.1424</v>
+      <c r="A16" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C16" s="0" t="s">
+        <v>7</v>
       </c>
       <c r="D16" s="0" t="n">
-        <v>-7.6921</v>
-      </c>
-      <c r="E16" s="1" t="s">
+        <v>53.1424</v>
+      </c>
+      <c r="E16" s="0" t="n">
+        <v>-7.6921</v>
+      </c>
+      <c r="F16" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G16" s="0" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="F16" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="G16" s="0" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B17" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="C17" s="0" t="n">
-        <v>53.1424</v>
+      <c r="C17" s="0" t="s">
+        <v>7</v>
       </c>
       <c r="D17" s="0" t="n">
-        <v>-7.6921</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>16</v>
+        <v>53.1424</v>
+      </c>
+      <c r="E17" s="0" t="n">
+        <v>-7.6921</v>
       </c>
       <c r="F17" s="0" t="n">
         <v>0</v>
       </c>
       <c r="G17" s="0" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B18" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="C18" s="0" t="n">
-        <v>53.1424</v>
+      <c r="A18" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C18" s="0" t="s">
+        <v>7</v>
       </c>
       <c r="D18" s="0" t="n">
-        <v>-7.6921</v>
-      </c>
-      <c r="E18" s="1" t="s">
+        <v>53.1424</v>
+      </c>
+      <c r="E18" s="0" t="n">
+        <v>-7.6921</v>
+      </c>
+      <c r="F18" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G18" s="0" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="F18" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="G18" s="0" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B19" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="C19" s="0" t="n">
-        <v>53.1424</v>
+      <c r="C19" s="0" t="s">
+        <v>7</v>
       </c>
       <c r="D19" s="0" t="n">
-        <v>-7.6921</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>17</v>
+        <v>53.1424</v>
+      </c>
+      <c r="E19" s="0" t="n">
+        <v>-7.6921</v>
       </c>
       <c r="F19" s="0" t="n">
         <v>0</v>
       </c>
       <c r="G19" s="0" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B20" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="C20" s="0" t="n">
-        <v>53.1424</v>
+      <c r="A20" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C20" s="0" t="s">
+        <v>7</v>
       </c>
       <c r="D20" s="0" t="n">
-        <v>-7.6921</v>
-      </c>
-      <c r="E20" s="1" t="s">
+        <v>53.1424</v>
+      </c>
+      <c r="E20" s="0" t="n">
+        <v>-7.6921</v>
+      </c>
+      <c r="F20" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G20" s="0" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="F20" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="G20" s="0" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B21" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="C21" s="0" t="n">
-        <v>53.1424</v>
+      <c r="C21" s="0" t="s">
+        <v>7</v>
       </c>
       <c r="D21" s="0" t="n">
-        <v>-7.6921</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>18</v>
+        <v>53.1424</v>
+      </c>
+      <c r="E21" s="0" t="n">
+        <v>-7.6921</v>
       </c>
       <c r="F21" s="0" t="n">
         <v>0</v>
       </c>
       <c r="G21" s="0" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B22" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="C22" s="0" t="n">
-        <v>53.1424</v>
+      <c r="A22" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C22" s="0" t="s">
+        <v>7</v>
       </c>
       <c r="D22" s="0" t="n">
-        <v>-7.6921</v>
-      </c>
-      <c r="E22" s="1" t="s">
+        <v>53.1424</v>
+      </c>
+      <c r="E22" s="0" t="n">
+        <v>-7.6921</v>
+      </c>
+      <c r="F22" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G22" s="0" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="F22" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="G22" s="0" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B23" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="C23" s="0" t="n">
-        <v>53.1424</v>
+      <c r="C23" s="0" t="s">
+        <v>7</v>
       </c>
       <c r="D23" s="0" t="n">
-        <v>-7.6921</v>
-      </c>
-      <c r="E23" s="1" t="s">
-        <v>19</v>
+        <v>53.1424</v>
+      </c>
+      <c r="E23" s="0" t="n">
+        <v>-7.6921</v>
       </c>
       <c r="F23" s="0" t="n">
         <v>0</v>
       </c>
       <c r="G23" s="0" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B24" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="C24" s="0" t="n">
-        <v>53.1424</v>
+      <c r="A24" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C24" s="0" t="s">
+        <v>7</v>
       </c>
       <c r="D24" s="0" t="n">
-        <v>-7.6921</v>
-      </c>
-      <c r="E24" s="1" t="s">
+        <v>53.1424</v>
+      </c>
+      <c r="E24" s="0" t="n">
+        <v>-7.6921</v>
+      </c>
+      <c r="F24" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G24" s="0" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="F24" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="G24" s="0" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B25" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="C25" s="0" t="n">
-        <v>53.1424</v>
+      <c r="C25" s="0" t="s">
+        <v>7</v>
       </c>
       <c r="D25" s="0" t="n">
-        <v>-7.6921</v>
-      </c>
-      <c r="E25" s="1" t="s">
-        <v>20</v>
+        <v>53.1424</v>
+      </c>
+      <c r="E25" s="0" t="n">
+        <v>-7.6921</v>
       </c>
       <c r="F25" s="0" t="n">
         <v>0</v>
       </c>
       <c r="G25" s="0" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B26" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="C26" s="0" t="n">
-        <v>53.1424</v>
+      <c r="A26" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C26" s="0" t="s">
+        <v>7</v>
       </c>
       <c r="D26" s="0" t="n">
-        <v>-7.6921</v>
-      </c>
-      <c r="E26" s="1" t="s">
+        <v>53.1424</v>
+      </c>
+      <c r="E26" s="0" t="n">
+        <v>-7.6921</v>
+      </c>
+      <c r="F26" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G26" s="0" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="F26" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="G26" s="0" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B27" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="C27" s="0" t="n">
-        <v>53.1424</v>
+      <c r="C27" s="0" t="s">
+        <v>7</v>
       </c>
       <c r="D27" s="0" t="n">
-        <v>-7.6921</v>
-      </c>
-      <c r="E27" s="1" t="s">
-        <v>21</v>
+        <v>53.1424</v>
+      </c>
+      <c r="E27" s="0" t="n">
+        <v>-7.6921</v>
       </c>
       <c r="F27" s="0" t="n">
         <v>0</v>
       </c>
       <c r="G27" s="0" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B28" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="C28" s="0" t="n">
-        <v>53.1424</v>
+      <c r="A28" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C28" s="0" t="s">
+        <v>7</v>
       </c>
       <c r="D28" s="0" t="n">
-        <v>-7.6921</v>
-      </c>
-      <c r="E28" s="1" t="s">
+        <v>53.1424</v>
+      </c>
+      <c r="E28" s="0" t="n">
+        <v>-7.6921</v>
+      </c>
+      <c r="F28" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G28" s="0" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="F28" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="G28" s="0" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B29" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="C29" s="0" t="n">
-        <v>53.1424</v>
+      <c r="C29" s="0" t="s">
+        <v>7</v>
       </c>
       <c r="D29" s="0" t="n">
-        <v>-7.6921</v>
-      </c>
-      <c r="E29" s="1" t="s">
-        <v>22</v>
+        <v>53.1424</v>
+      </c>
+      <c r="E29" s="0" t="n">
+        <v>-7.6921</v>
       </c>
       <c r="F29" s="0" t="n">
         <v>0</v>
       </c>
       <c r="G29" s="0" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B30" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="C30" s="0" t="n">
-        <v>53.1424</v>
+      <c r="A30" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C30" s="0" t="s">
+        <v>7</v>
       </c>
       <c r="D30" s="0" t="n">
-        <v>-7.6921</v>
-      </c>
-      <c r="E30" s="1" t="s">
+        <v>53.1424</v>
+      </c>
+      <c r="E30" s="0" t="n">
+        <v>-7.6921</v>
+      </c>
+      <c r="F30" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G30" s="0" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="F30" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="G30" s="0" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B31" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="C31" s="0" t="n">
-        <v>53.1424</v>
+      <c r="C31" s="0" t="s">
+        <v>7</v>
       </c>
       <c r="D31" s="0" t="n">
-        <v>-7.6921</v>
-      </c>
-      <c r="E31" s="1" t="s">
-        <v>23</v>
+        <v>53.1424</v>
+      </c>
+      <c r="E31" s="0" t="n">
+        <v>-7.6921</v>
       </c>
       <c r="F31" s="0" t="n">
         <v>0</v>
       </c>
       <c r="G31" s="0" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B32" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="C32" s="0" t="n">
-        <v>53.1424</v>
+      <c r="A32" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C32" s="0" t="s">
+        <v>7</v>
       </c>
       <c r="D32" s="0" t="n">
-        <v>-7.6921</v>
-      </c>
-      <c r="E32" s="1" t="s">
+        <v>53.1424</v>
+      </c>
+      <c r="E32" s="0" t="n">
+        <v>-7.6921</v>
+      </c>
+      <c r="F32" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G32" s="0" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="F32" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="G32" s="0" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B33" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="C33" s="0" t="n">
-        <v>53.1424</v>
+      <c r="C33" s="0" t="s">
+        <v>7</v>
       </c>
       <c r="D33" s="0" t="n">
-        <v>-7.6921</v>
-      </c>
-      <c r="E33" s="1" t="s">
-        <v>24</v>
+        <v>53.1424</v>
+      </c>
+      <c r="E33" s="0" t="n">
+        <v>-7.6921</v>
       </c>
       <c r="F33" s="0" t="n">
         <v>0</v>
       </c>
       <c r="G33" s="0" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B34" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="C34" s="0" t="n">
-        <v>53.1424</v>
+      <c r="A34" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C34" s="0" t="s">
+        <v>7</v>
       </c>
       <c r="D34" s="0" t="n">
-        <v>-7.6921</v>
-      </c>
-      <c r="E34" s="1" t="s">
+        <v>53.1424</v>
+      </c>
+      <c r="E34" s="0" t="n">
+        <v>-7.6921</v>
+      </c>
+      <c r="F34" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G34" s="0" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="F34" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="G34" s="0" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B35" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="C35" s="0" t="n">
-        <v>53.1424</v>
+      <c r="C35" s="0" t="s">
+        <v>7</v>
       </c>
       <c r="D35" s="0" t="n">
-        <v>-7.6921</v>
-      </c>
-      <c r="E35" s="1" t="s">
-        <v>25</v>
+        <v>53.1424</v>
+      </c>
+      <c r="E35" s="0" t="n">
+        <v>-7.6921</v>
       </c>
       <c r="F35" s="0" t="n">
         <v>0</v>
       </c>
       <c r="G35" s="0" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B36" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="C36" s="0" t="n">
-        <v>53.1424</v>
+      <c r="A36" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C36" s="0" t="s">
+        <v>7</v>
       </c>
       <c r="D36" s="0" t="n">
-        <v>-7.6921</v>
-      </c>
-      <c r="E36" s="1" t="s">
+        <v>53.1424</v>
+      </c>
+      <c r="E36" s="0" t="n">
+        <v>-7.6921</v>
+      </c>
+      <c r="F36" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G36" s="0" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="F36" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="G36" s="0" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B37" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="C37" s="0" t="n">
-        <v>53.1424</v>
+      <c r="C37" s="0" t="s">
+        <v>7</v>
       </c>
       <c r="D37" s="0" t="n">
-        <v>-7.6921</v>
-      </c>
-      <c r="E37" s="1" t="s">
-        <v>26</v>
+        <v>53.1424</v>
+      </c>
+      <c r="E37" s="0" t="n">
+        <v>-7.6921</v>
       </c>
       <c r="F37" s="0" t="n">
         <v>0</v>
       </c>
       <c r="G37" s="0" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B38" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="C38" s="0" t="n">
-        <v>53.1424</v>
+      <c r="A38" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C38" s="0" t="s">
+        <v>7</v>
       </c>
       <c r="D38" s="0" t="n">
-        <v>-7.6921</v>
-      </c>
-      <c r="E38" s="1" t="s">
+        <v>53.1424</v>
+      </c>
+      <c r="E38" s="0" t="n">
+        <v>-7.6921</v>
+      </c>
+      <c r="F38" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G38" s="0" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="F38" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="G38" s="0" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B39" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="C39" s="0" t="n">
-        <v>53.1424</v>
+      <c r="C39" s="0" t="s">
+        <v>7</v>
       </c>
       <c r="D39" s="0" t="n">
-        <v>-7.6921</v>
-      </c>
-      <c r="E39" s="1" t="s">
-        <v>27</v>
+        <v>53.1424</v>
+      </c>
+      <c r="E39" s="0" t="n">
+        <v>-7.6921</v>
       </c>
       <c r="F39" s="0" t="n">
         <v>0</v>
       </c>
       <c r="G39" s="0" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B40" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="C40" s="0" t="n">
-        <v>53.1424</v>
+      <c r="A40" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C40" s="0" t="s">
+        <v>7</v>
       </c>
       <c r="D40" s="0" t="n">
-        <v>-7.6921</v>
-      </c>
-      <c r="E40" s="1" t="s">
+        <v>53.1424</v>
+      </c>
+      <c r="E40" s="0" t="n">
+        <v>-7.6921</v>
+      </c>
+      <c r="F40" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G40" s="0" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="F40" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="G40" s="0" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B41" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="C41" s="0" t="n">
-        <v>53.1424</v>
+      <c r="C41" s="0" t="s">
+        <v>7</v>
       </c>
       <c r="D41" s="0" t="n">
-        <v>-7.6921</v>
-      </c>
-      <c r="E41" s="1" t="s">
-        <v>28</v>
+        <v>53.1424</v>
+      </c>
+      <c r="E41" s="0" t="n">
+        <v>-7.6921</v>
       </c>
       <c r="F41" s="0" t="n">
         <v>0</v>
       </c>
       <c r="G41" s="0" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B42" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="C42" s="0" t="n">
-        <v>53.1424</v>
+      <c r="A42" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C42" s="0" t="s">
+        <v>7</v>
       </c>
       <c r="D42" s="0" t="n">
-        <v>-7.6921</v>
-      </c>
-      <c r="E42" s="1" t="s">
+        <v>53.1424</v>
+      </c>
+      <c r="E42" s="0" t="n">
+        <v>-7.6921</v>
+      </c>
+      <c r="F42" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G42" s="0" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="F42" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="G42" s="0" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B43" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="C43" s="0" t="n">
-        <v>53.1424</v>
+      <c r="C43" s="0" t="s">
+        <v>7</v>
       </c>
       <c r="D43" s="0" t="n">
-        <v>-7.6921</v>
-      </c>
-      <c r="E43" s="1" t="s">
-        <v>29</v>
+        <v>53.1424</v>
+      </c>
+      <c r="E43" s="0" t="n">
+        <v>-7.6921</v>
       </c>
       <c r="F43" s="0" t="n">
         <v>0</v>
       </c>
       <c r="G43" s="0" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B44" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="C44" s="0" t="n">
-        <v>53.1424</v>
+      <c r="A44" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C44" s="0" t="s">
+        <v>7</v>
       </c>
       <c r="D44" s="0" t="n">
-        <v>-7.6921</v>
-      </c>
-      <c r="E44" s="1" t="s">
+        <v>53.1424</v>
+      </c>
+      <c r="E44" s="0" t="n">
+        <v>-7.6921</v>
+      </c>
+      <c r="F44" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G44" s="0" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="F44" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="G44" s="0" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B45" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="C45" s="0" t="n">
-        <v>53.1424</v>
+      <c r="C45" s="0" t="s">
+        <v>7</v>
       </c>
       <c r="D45" s="0" t="n">
-        <v>-7.6921</v>
-      </c>
-      <c r="E45" s="1" t="s">
-        <v>30</v>
+        <v>53.1424</v>
+      </c>
+      <c r="E45" s="0" t="n">
+        <v>-7.6921</v>
       </c>
       <c r="F45" s="0" t="n">
         <v>0</v>
       </c>
       <c r="G45" s="0" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B46" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="C46" s="0" t="n">
-        <v>53.1424</v>
+      <c r="A46" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C46" s="0" t="s">
+        <v>7</v>
       </c>
       <c r="D46" s="0" t="n">
-        <v>-7.6921</v>
-      </c>
-      <c r="E46" s="1" t="s">
+        <v>53.1424</v>
+      </c>
+      <c r="E46" s="0" t="n">
+        <v>-7.6921</v>
+      </c>
+      <c r="F46" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G46" s="0" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="F46" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="G46" s="0" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B47" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="C47" s="0" t="n">
-        <v>53.1424</v>
+      <c r="C47" s="0" t="s">
+        <v>7</v>
       </c>
       <c r="D47" s="0" t="n">
-        <v>-7.6921</v>
-      </c>
-      <c r="E47" s="1" t="s">
-        <v>31</v>
+        <v>53.1424</v>
+      </c>
+      <c r="E47" s="0" t="n">
+        <v>-7.6921</v>
       </c>
       <c r="F47" s="0" t="n">
         <v>0</v>
       </c>
       <c r="G47" s="0" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B48" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="C48" s="0" t="n">
-        <v>53.1424</v>
+      <c r="A48" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C48" s="0" t="s">
+        <v>7</v>
       </c>
       <c r="D48" s="0" t="n">
-        <v>-7.6921</v>
-      </c>
-      <c r="E48" s="1" t="s">
+        <v>53.1424</v>
+      </c>
+      <c r="E48" s="0" t="n">
+        <v>-7.6921</v>
+      </c>
+      <c r="F48" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G48" s="0" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="F48" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="G48" s="0" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B49" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="C49" s="0" t="n">
-        <v>53.1424</v>
+      <c r="C49" s="0" t="s">
+        <v>7</v>
       </c>
       <c r="D49" s="0" t="n">
-        <v>-7.6921</v>
-      </c>
-      <c r="E49" s="1" t="s">
-        <v>32</v>
+        <v>53.1424</v>
+      </c>
+      <c r="E49" s="0" t="n">
+        <v>-7.6921</v>
       </c>
       <c r="F49" s="0" t="n">
         <v>0</v>
       </c>
       <c r="G49" s="0" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B50" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="C50" s="0" t="n">
-        <v>53.1424</v>
+      <c r="A50" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C50" s="0" t="s">
+        <v>7</v>
       </c>
       <c r="D50" s="0" t="n">
-        <v>-7.6921</v>
-      </c>
-      <c r="E50" s="1" t="s">
+        <v>53.1424</v>
+      </c>
+      <c r="E50" s="0" t="n">
+        <v>-7.6921</v>
+      </c>
+      <c r="F50" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G50" s="0" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="F50" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="G50" s="0" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B51" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="C51" s="0" t="n">
-        <v>53.1424</v>
+      <c r="C51" s="0" t="s">
+        <v>7</v>
       </c>
       <c r="D51" s="0" t="n">
-        <v>-7.6921</v>
-      </c>
-      <c r="E51" s="1" t="s">
-        <v>33</v>
+        <v>53.1424</v>
+      </c>
+      <c r="E51" s="0" t="n">
+        <v>-7.6921</v>
       </c>
       <c r="F51" s="0" t="n">
         <v>0</v>
       </c>
       <c r="G51" s="0" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B52" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="C52" s="0" t="n">
-        <v>53.1424</v>
+      <c r="A52" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C52" s="0" t="s">
+        <v>7</v>
       </c>
       <c r="D52" s="0" t="n">
-        <v>-7.6921</v>
-      </c>
-      <c r="E52" s="1" t="s">
+        <v>53.1424</v>
+      </c>
+      <c r="E52" s="0" t="n">
+        <v>-7.6921</v>
+      </c>
+      <c r="F52" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G52" s="0" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="F52" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="G52" s="0" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B53" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="C53" s="0" t="n">
-        <v>53.1424</v>
+      <c r="C53" s="0" t="s">
+        <v>7</v>
       </c>
       <c r="D53" s="0" t="n">
-        <v>-7.6921</v>
-      </c>
-      <c r="E53" s="1" t="s">
-        <v>34</v>
+        <v>53.1424</v>
+      </c>
+      <c r="E53" s="0" t="n">
+        <v>-7.6921</v>
       </c>
       <c r="F53" s="0" t="n">
         <v>0</v>
       </c>
       <c r="G53" s="0" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B54" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="C54" s="0" t="n">
-        <v>53.1424</v>
+      <c r="A54" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C54" s="0" t="s">
+        <v>7</v>
       </c>
       <c r="D54" s="0" t="n">
-        <v>-7.6921</v>
-      </c>
-      <c r="E54" s="1" t="s">
+        <v>53.1424</v>
+      </c>
+      <c r="E54" s="0" t="n">
+        <v>-7.6921</v>
+      </c>
+      <c r="F54" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G54" s="0" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="F54" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="G54" s="0" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B55" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="C55" s="0" t="n">
-        <v>53.1424</v>
+      <c r="C55" s="0" t="s">
+        <v>7</v>
       </c>
       <c r="D55" s="0" t="n">
-        <v>-7.6921</v>
-      </c>
-      <c r="E55" s="1" t="s">
-        <v>35</v>
+        <v>53.1424</v>
+      </c>
+      <c r="E55" s="0" t="n">
+        <v>-7.6921</v>
       </c>
       <c r="F55" s="0" t="n">
         <v>0</v>
       </c>
       <c r="G55" s="0" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B56" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="C56" s="0" t="n">
-        <v>53.1424</v>
+      <c r="A56" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C56" s="0" t="s">
+        <v>7</v>
       </c>
       <c r="D56" s="0" t="n">
-        <v>-7.6921</v>
-      </c>
-      <c r="E56" s="1" t="s">
+        <v>53.1424</v>
+      </c>
+      <c r="E56" s="0" t="n">
+        <v>-7.6921</v>
+      </c>
+      <c r="F56" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G56" s="0" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A57" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="F56" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="G56" s="0" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B57" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="C57" s="0" t="n">
-        <v>53.1424</v>
+      <c r="C57" s="0" t="s">
+        <v>7</v>
       </c>
       <c r="D57" s="0" t="n">
-        <v>-7.6921</v>
-      </c>
-      <c r="E57" s="1" t="s">
-        <v>36</v>
+        <v>53.1424</v>
+      </c>
+      <c r="E57" s="0" t="n">
+        <v>-7.6921</v>
       </c>
       <c r="F57" s="0" t="n">
         <v>0</v>
       </c>
       <c r="G57" s="0" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B58" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="C58" s="0" t="n">
-        <v>53.1424</v>
+      <c r="A58" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C58" s="0" t="s">
+        <v>7</v>
       </c>
       <c r="D58" s="0" t="n">
-        <v>-7.6921</v>
-      </c>
-      <c r="E58" s="1" t="s">
+        <v>53.1424</v>
+      </c>
+      <c r="E58" s="0" t="n">
+        <v>-7.6921</v>
+      </c>
+      <c r="F58" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G58" s="0" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A59" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="F58" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="G58" s="0" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B59" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="C59" s="0" t="n">
-        <v>53.1424</v>
+      <c r="C59" s="0" t="s">
+        <v>7</v>
       </c>
       <c r="D59" s="0" t="n">
-        <v>-7.6921</v>
-      </c>
-      <c r="E59" s="1" t="s">
-        <v>37</v>
+        <v>53.1424</v>
+      </c>
+      <c r="E59" s="0" t="n">
+        <v>-7.6921</v>
       </c>
       <c r="F59" s="0" t="n">
         <v>0</v>
       </c>
       <c r="G59" s="0" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B60" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="C60" s="0" t="n">
-        <v>53.1424</v>
+      <c r="A60" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C60" s="0" t="s">
+        <v>7</v>
       </c>
       <c r="D60" s="0" t="n">
-        <v>-7.6921</v>
-      </c>
-      <c r="E60" s="1" t="s">
+        <v>53.1424</v>
+      </c>
+      <c r="E60" s="0" t="n">
+        <v>-7.6921</v>
+      </c>
+      <c r="F60" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G60" s="0" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A61" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="F60" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="G60" s="0" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B61" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="C61" s="0" t="n">
-        <v>53.1424</v>
+      <c r="C61" s="0" t="s">
+        <v>7</v>
       </c>
       <c r="D61" s="0" t="n">
-        <v>-7.6921</v>
-      </c>
-      <c r="E61" s="1" t="s">
-        <v>38</v>
+        <v>53.1424</v>
+      </c>
+      <c r="E61" s="0" t="n">
+        <v>-7.6921</v>
       </c>
       <c r="F61" s="0" t="n">
         <v>0</v>
       </c>
       <c r="G61" s="0" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B62" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="C62" s="0" t="n">
-        <v>53.1424</v>
+      <c r="A62" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C62" s="0" t="s">
+        <v>7</v>
       </c>
       <c r="D62" s="0" t="n">
-        <v>-7.6921</v>
-      </c>
-      <c r="E62" s="1" t="s">
+        <v>53.1424</v>
+      </c>
+      <c r="E62" s="0" t="n">
+        <v>-7.6921</v>
+      </c>
+      <c r="F62" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G62" s="0" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A63" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="F62" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="G62" s="0" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B63" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="C63" s="0" t="n">
-        <v>53.1424</v>
+      <c r="C63" s="0" t="s">
+        <v>7</v>
       </c>
       <c r="D63" s="0" t="n">
-        <v>-7.6921</v>
-      </c>
-      <c r="E63" s="1" t="s">
-        <v>39</v>
+        <v>53.1424</v>
+      </c>
+      <c r="E63" s="0" t="n">
+        <v>-7.6921</v>
       </c>
       <c r="F63" s="0" t="n">
         <v>0</v>
       </c>
       <c r="G63" s="0" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B64" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="C64" s="0" t="n">
-        <v>53.1424</v>
+      <c r="A64" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C64" s="0" t="s">
+        <v>7</v>
       </c>
       <c r="D64" s="0" t="n">
-        <v>-7.6921</v>
-      </c>
-      <c r="E64" s="1" t="s">
+        <v>53.1424</v>
+      </c>
+      <c r="E64" s="0" t="n">
+        <v>-7.6921</v>
+      </c>
+      <c r="F64" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G64" s="0" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A65" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="F64" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="G64" s="0" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B65" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="C65" s="0" t="n">
-        <v>53.1424</v>
+      <c r="C65" s="0" t="s">
+        <v>7</v>
       </c>
       <c r="D65" s="0" t="n">
-        <v>-7.6921</v>
-      </c>
-      <c r="E65" s="1" t="s">
-        <v>40</v>
+        <v>53.1424</v>
+      </c>
+      <c r="E65" s="0" t="n">
+        <v>-7.6921</v>
       </c>
       <c r="F65" s="0" t="n">
         <v>0</v>
       </c>
       <c r="G65" s="0" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B66" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="C66" s="0" t="n">
-        <v>53.1424</v>
+      <c r="A66" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C66" s="0" t="s">
+        <v>7</v>
       </c>
       <c r="D66" s="0" t="n">
-        <v>-7.6921</v>
-      </c>
-      <c r="E66" s="1" t="s">
+        <v>53.1424</v>
+      </c>
+      <c r="E66" s="0" t="n">
+        <v>-7.6921</v>
+      </c>
+      <c r="F66" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G66" s="0" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A67" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="F66" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="G66" s="0" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B67" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="C67" s="0" t="n">
-        <v>53.1424</v>
+      <c r="C67" s="0" t="s">
+        <v>7</v>
       </c>
       <c r="D67" s="0" t="n">
-        <v>-7.6921</v>
-      </c>
-      <c r="E67" s="1" t="s">
-        <v>41</v>
+        <v>53.1424</v>
+      </c>
+      <c r="E67" s="0" t="n">
+        <v>-7.6921</v>
       </c>
       <c r="F67" s="0" t="n">
         <v>0</v>
       </c>
       <c r="G67" s="0" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B68" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="C68" s="0" t="n">
-        <v>53.1424</v>
+      <c r="A68" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C68" s="0" t="s">
+        <v>7</v>
       </c>
       <c r="D68" s="0" t="n">
-        <v>-7.6921</v>
-      </c>
-      <c r="E68" s="1" t="s">
+        <v>53.1424</v>
+      </c>
+      <c r="E68" s="0" t="n">
+        <v>-7.6921</v>
+      </c>
+      <c r="F68" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G68" s="0" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A69" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="F68" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="G68" s="0" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B69" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="C69" s="0" t="n">
-        <v>53.1424</v>
+      <c r="C69" s="0" t="s">
+        <v>7</v>
       </c>
       <c r="D69" s="0" t="n">
-        <v>-7.6921</v>
-      </c>
-      <c r="E69" s="1" t="s">
-        <v>42</v>
+        <v>53.1424</v>
+      </c>
+      <c r="E69" s="0" t="n">
+        <v>-7.6921</v>
       </c>
       <c r="F69" s="0" t="n">
         <v>0</v>
       </c>
       <c r="G69" s="0" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B70" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="C70" s="0" t="n">
-        <v>53.1424</v>
+      <c r="A70" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C70" s="0" t="s">
+        <v>7</v>
       </c>
       <c r="D70" s="0" t="n">
-        <v>-7.6921</v>
-      </c>
-      <c r="E70" s="1" t="s">
+        <v>53.1424</v>
+      </c>
+      <c r="E70" s="0" t="n">
+        <v>-7.6921</v>
+      </c>
+      <c r="F70" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G70" s="0" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A71" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="F70" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="G70" s="0" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B71" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="C71" s="0" t="n">
-        <v>53.1424</v>
+      <c r="C71" s="0" t="s">
+        <v>7</v>
       </c>
       <c r="D71" s="0" t="n">
-        <v>-7.6921</v>
-      </c>
-      <c r="E71" s="1" t="s">
-        <v>43</v>
+        <v>53.1424</v>
+      </c>
+      <c r="E71" s="0" t="n">
+        <v>-7.6921</v>
       </c>
       <c r="F71" s="0" t="n">
         <v>0</v>
       </c>
       <c r="G71" s="0" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B72" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="C72" s="0" t="n">
-        <v>53.1424</v>
+      <c r="A72" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C72" s="0" t="s">
+        <v>7</v>
       </c>
       <c r="D72" s="0" t="n">
-        <v>-7.6921</v>
-      </c>
-      <c r="E72" s="1" t="s">
+        <v>53.1424</v>
+      </c>
+      <c r="E72" s="0" t="n">
+        <v>-7.6921</v>
+      </c>
+      <c r="F72" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G72" s="0" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A73" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="F72" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="G72" s="0" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B73" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="C73" s="0" t="n">
-        <v>53.1424</v>
+      <c r="C73" s="0" t="s">
+        <v>7</v>
       </c>
       <c r="D73" s="0" t="n">
-        <v>-7.6921</v>
-      </c>
-      <c r="E73" s="1" t="s">
-        <v>44</v>
+        <v>53.1424</v>
+      </c>
+      <c r="E73" s="0" t="n">
+        <v>-7.6921</v>
       </c>
       <c r="F73" s="0" t="n">
         <v>0</v>
       </c>
       <c r="G73" s="0" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B74" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="C74" s="0" t="n">
-        <v>53.1424</v>
+      <c r="A74" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C74" s="0" t="s">
+        <v>7</v>
       </c>
       <c r="D74" s="0" t="n">
-        <v>-7.6921</v>
-      </c>
-      <c r="E74" s="1" t="s">
+        <v>53.1424</v>
+      </c>
+      <c r="E74" s="0" t="n">
+        <v>-7.6921</v>
+      </c>
+      <c r="F74" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G74" s="0" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A75" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="F74" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="G74" s="0" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B75" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="C75" s="0" t="n">
-        <v>53.1424</v>
+      <c r="C75" s="0" t="s">
+        <v>7</v>
       </c>
       <c r="D75" s="0" t="n">
-        <v>-7.6921</v>
-      </c>
-      <c r="E75" s="1" t="s">
-        <v>45</v>
+        <v>53.1424</v>
+      </c>
+      <c r="E75" s="0" t="n">
+        <v>-7.6921</v>
       </c>
       <c r="F75" s="0" t="n">
         <v>0</v>
       </c>
       <c r="G75" s="0" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B76" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="C76" s="0" t="n">
-        <v>53.1424</v>
+      <c r="A76" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C76" s="0" t="s">
+        <v>7</v>
       </c>
       <c r="D76" s="0" t="n">
-        <v>-7.6921</v>
-      </c>
-      <c r="E76" s="1" t="s">
+        <v>53.1424</v>
+      </c>
+      <c r="E76" s="0" t="n">
+        <v>-7.6921</v>
+      </c>
+      <c r="F76" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G76" s="0" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A77" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="F76" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="G76" s="0" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B77" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="C77" s="0" t="n">
-        <v>53.1424</v>
+      <c r="C77" s="0" t="s">
+        <v>7</v>
       </c>
       <c r="D77" s="0" t="n">
-        <v>-7.6921</v>
-      </c>
-      <c r="E77" s="1" t="s">
-        <v>46</v>
+        <v>53.1424</v>
+      </c>
+      <c r="E77" s="0" t="n">
+        <v>-7.6921</v>
       </c>
       <c r="F77" s="0" t="n">
         <v>0</v>
       </c>
       <c r="G77" s="0" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B78" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="C78" s="0" t="n">
-        <v>53.1424</v>
+      <c r="A78" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C78" s="0" t="s">
+        <v>7</v>
       </c>
       <c r="D78" s="0" t="n">
-        <v>-7.6921</v>
-      </c>
-      <c r="E78" s="1" t="s">
-        <v>47</v>
+        <v>53.1424</v>
+      </c>
+      <c r="E78" s="0" t="n">
+        <v>-7.6921</v>
       </c>
       <c r="F78" s="0" t="n">
         <v>1</v>
@@ -3204,117 +3216,117 @@
       </c>
     </row>
     <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B79" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="C79" s="0" t="n">
-        <v>53.1424</v>
+      <c r="A79" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C79" s="0" t="s">
+        <v>7</v>
       </c>
       <c r="D79" s="0" t="n">
-        <v>-7.6921</v>
-      </c>
-      <c r="E79" s="1" t="s">
-        <v>47</v>
+        <v>53.1424</v>
+      </c>
+      <c r="E79" s="0" t="n">
+        <v>-7.6921</v>
       </c>
       <c r="F79" s="0" t="n">
         <v>0</v>
       </c>
       <c r="G79" s="0" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B80" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="C80" s="0" t="n">
-        <v>53.1424</v>
+      <c r="A80" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C80" s="0" t="s">
+        <v>7</v>
       </c>
       <c r="D80" s="0" t="n">
-        <v>-7.6921</v>
-      </c>
-      <c r="E80" s="1" t="s">
+        <v>53.1424</v>
+      </c>
+      <c r="E80" s="0" t="n">
+        <v>-7.6921</v>
+      </c>
+      <c r="F80" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G80" s="0" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A81" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="F80" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="G80" s="0" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B81" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="C81" s="0" t="n">
-        <v>53.1424</v>
+      <c r="C81" s="0" t="s">
+        <v>7</v>
       </c>
       <c r="D81" s="0" t="n">
-        <v>-7.6921</v>
-      </c>
-      <c r="E81" s="1" t="s">
-        <v>48</v>
+        <v>53.1424</v>
+      </c>
+      <c r="E81" s="0" t="n">
+        <v>-7.6921</v>
       </c>
       <c r="F81" s="0" t="n">
         <v>0</v>
       </c>
       <c r="G81" s="0" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B82" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="C82" s="0" t="n">
-        <v>53.1424</v>
+      <c r="A82" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C82" s="0" t="s">
+        <v>7</v>
       </c>
       <c r="D82" s="0" t="n">
-        <v>-7.6921</v>
-      </c>
-      <c r="E82" s="1" t="s">
+        <v>53.1424</v>
+      </c>
+      <c r="E82" s="0" t="n">
+        <v>-7.6921</v>
+      </c>
+      <c r="F82" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G82" s="0" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A83" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="F82" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="G82" s="0" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B83" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="C83" s="0" t="n">
-        <v>53.1424</v>
+      <c r="C83" s="0" t="s">
+        <v>7</v>
       </c>
       <c r="D83" s="0" t="n">
-        <v>-7.6921</v>
-      </c>
-      <c r="E83" s="1" t="s">
-        <v>49</v>
+        <v>53.1424</v>
+      </c>
+      <c r="E83" s="0" t="n">
+        <v>-7.6921</v>
       </c>
       <c r="F83" s="0" t="n">
         <v>0</v>
       </c>
       <c r="G83" s="0" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B84" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="C84" s="0" t="n">
-        <v>53.1424</v>
+      <c r="A84" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C84" s="0" t="s">
+        <v>7</v>
       </c>
       <c r="D84" s="0" t="n">
-        <v>-7.6921</v>
-      </c>
-      <c r="E84" s="1" t="s">
-        <v>50</v>
+        <v>53.1424</v>
+      </c>
+      <c r="E84" s="0" t="n">
+        <v>-7.6921</v>
       </c>
       <c r="F84" s="0" t="n">
         <v>1</v>
@@ -3324,37 +3336,37 @@
       </c>
     </row>
     <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B85" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="C85" s="0" t="n">
-        <v>53.1424</v>
+      <c r="A85" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C85" s="0" t="s">
+        <v>7</v>
       </c>
       <c r="D85" s="0" t="n">
-        <v>-7.6921</v>
-      </c>
-      <c r="E85" s="1" t="s">
-        <v>50</v>
+        <v>53.1424</v>
+      </c>
+      <c r="E85" s="0" t="n">
+        <v>-7.6921</v>
       </c>
       <c r="F85" s="0" t="n">
         <v>0</v>
       </c>
       <c r="G85" s="0" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B86" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="C86" s="0" t="n">
-        <v>53.1424</v>
+      <c r="A86" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C86" s="0" t="s">
+        <v>7</v>
       </c>
       <c r="D86" s="0" t="n">
-        <v>-7.6921</v>
-      </c>
-      <c r="E86" s="1" t="s">
-        <v>51</v>
+        <v>53.1424</v>
+      </c>
+      <c r="E86" s="0" t="n">
+        <v>-7.6921</v>
       </c>
       <c r="F86" s="0" t="n">
         <v>4</v>
@@ -3364,77 +3376,77 @@
       </c>
     </row>
     <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B87" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="C87" s="0" t="n">
-        <v>53.1424</v>
+      <c r="A87" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C87" s="0" t="s">
+        <v>7</v>
       </c>
       <c r="D87" s="0" t="n">
-        <v>-7.6921</v>
-      </c>
-      <c r="E87" s="1" t="s">
-        <v>51</v>
+        <v>53.1424</v>
+      </c>
+      <c r="E87" s="0" t="n">
+        <v>-7.6921</v>
       </c>
       <c r="F87" s="0" t="n">
         <v>0</v>
       </c>
       <c r="G87" s="0" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B88" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="C88" s="0" t="n">
-        <v>53.1424</v>
+      <c r="A88" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C88" s="0" t="s">
+        <v>7</v>
       </c>
       <c r="D88" s="0" t="n">
-        <v>-7.6921</v>
-      </c>
-      <c r="E88" s="1" t="s">
+        <v>53.1424</v>
+      </c>
+      <c r="E88" s="0" t="n">
+        <v>-7.6921</v>
+      </c>
+      <c r="F88" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="G88" s="0" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A89" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="F88" s="0" t="n">
-        <v>7</v>
-      </c>
-      <c r="G88" s="0" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B89" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="C89" s="0" t="n">
-        <v>53.1424</v>
+      <c r="C89" s="0" t="s">
+        <v>7</v>
       </c>
       <c r="D89" s="0" t="n">
-        <v>-7.6921</v>
-      </c>
-      <c r="E89" s="1" t="s">
-        <v>52</v>
+        <v>53.1424</v>
+      </c>
+      <c r="E89" s="0" t="n">
+        <v>-7.6921</v>
       </c>
       <c r="F89" s="0" t="n">
         <v>0</v>
       </c>
       <c r="G89" s="0" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B90" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="C90" s="0" t="n">
-        <v>53.1424</v>
+      <c r="A90" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C90" s="0" t="s">
+        <v>7</v>
       </c>
       <c r="D90" s="0" t="n">
-        <v>-7.6921</v>
-      </c>
-      <c r="E90" s="1" t="s">
-        <v>53</v>
+        <v>53.1424</v>
+      </c>
+      <c r="E90" s="0" t="n">
+        <v>-7.6921</v>
       </c>
       <c r="F90" s="0" t="n">
         <v>5</v>
@@ -3444,37 +3456,37 @@
       </c>
     </row>
     <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B91" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="C91" s="0" t="n">
-        <v>53.1424</v>
+      <c r="A91" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C91" s="0" t="s">
+        <v>7</v>
       </c>
       <c r="D91" s="0" t="n">
-        <v>-7.6921</v>
-      </c>
-      <c r="E91" s="1" t="s">
-        <v>53</v>
+        <v>53.1424</v>
+      </c>
+      <c r="E91" s="0" t="n">
+        <v>-7.6921</v>
       </c>
       <c r="F91" s="0" t="n">
         <v>0</v>
       </c>
       <c r="G91" s="0" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B92" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="C92" s="0" t="n">
-        <v>53.1424</v>
+      <c r="A92" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C92" s="0" t="s">
+        <v>7</v>
       </c>
       <c r="D92" s="0" t="n">
-        <v>-7.6921</v>
-      </c>
-      <c r="E92" s="1" t="s">
-        <v>54</v>
+        <v>53.1424</v>
+      </c>
+      <c r="E92" s="0" t="n">
+        <v>-7.6921</v>
       </c>
       <c r="F92" s="0" t="n">
         <v>1</v>
@@ -3484,37 +3496,37 @@
       </c>
     </row>
     <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B93" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="C93" s="0" t="n">
-        <v>53.1424</v>
+      <c r="A93" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C93" s="0" t="s">
+        <v>7</v>
       </c>
       <c r="D93" s="0" t="n">
-        <v>-7.6921</v>
-      </c>
-      <c r="E93" s="1" t="s">
-        <v>54</v>
+        <v>53.1424</v>
+      </c>
+      <c r="E93" s="0" t="n">
+        <v>-7.6921</v>
       </c>
       <c r="F93" s="0" t="n">
         <v>0</v>
       </c>
       <c r="G93" s="0" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B94" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="C94" s="0" t="n">
-        <v>53.1424</v>
+      <c r="A94" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C94" s="0" t="s">
+        <v>7</v>
       </c>
       <c r="D94" s="0" t="n">
-        <v>-7.6921</v>
-      </c>
-      <c r="E94" s="1" t="s">
-        <v>55</v>
+        <v>53.1424</v>
+      </c>
+      <c r="E94" s="0" t="n">
+        <v>-7.6921</v>
       </c>
       <c r="F94" s="0" t="n">
         <v>2</v>
@@ -3524,37 +3536,37 @@
       </c>
     </row>
     <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B95" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="C95" s="0" t="n">
-        <v>53.1424</v>
+      <c r="A95" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C95" s="0" t="s">
+        <v>7</v>
       </c>
       <c r="D95" s="0" t="n">
-        <v>-7.6921</v>
-      </c>
-      <c r="E95" s="1" t="s">
-        <v>55</v>
+        <v>53.1424</v>
+      </c>
+      <c r="E95" s="0" t="n">
+        <v>-7.6921</v>
       </c>
       <c r="F95" s="0" t="n">
         <v>0</v>
       </c>
       <c r="G95" s="0" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B96" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="C96" s="0" t="n">
-        <v>53.1424</v>
+      <c r="A96" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C96" s="0" t="s">
+        <v>7</v>
       </c>
       <c r="D96" s="0" t="n">
-        <v>-7.6921</v>
-      </c>
-      <c r="E96" s="1" t="s">
-        <v>56</v>
+        <v>53.1424</v>
+      </c>
+      <c r="E96" s="0" t="n">
+        <v>-7.6921</v>
       </c>
       <c r="F96" s="0" t="n">
         <v>3</v>
@@ -3564,37 +3576,37 @@
       </c>
     </row>
     <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B97" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="C97" s="0" t="n">
-        <v>53.1424</v>
+      <c r="A97" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C97" s="0" t="s">
+        <v>7</v>
       </c>
       <c r="D97" s="0" t="n">
-        <v>-7.6921</v>
-      </c>
-      <c r="E97" s="1" t="s">
-        <v>56</v>
+        <v>53.1424</v>
+      </c>
+      <c r="E97" s="0" t="n">
+        <v>-7.6921</v>
       </c>
       <c r="F97" s="0" t="n">
         <v>0</v>
       </c>
       <c r="G97" s="0" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B98" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="C98" s="0" t="n">
-        <v>53.1424</v>
+      <c r="A98" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C98" s="0" t="s">
+        <v>7</v>
       </c>
       <c r="D98" s="0" t="n">
-        <v>-7.6921</v>
-      </c>
-      <c r="E98" s="1" t="s">
-        <v>57</v>
+        <v>53.1424</v>
+      </c>
+      <c r="E98" s="0" t="n">
+        <v>-7.6921</v>
       </c>
       <c r="F98" s="0" t="n">
         <v>10</v>
@@ -3604,77 +3616,77 @@
       </c>
     </row>
     <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B99" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="C99" s="0" t="n">
-        <v>53.1424</v>
+      <c r="A99" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C99" s="0" t="s">
+        <v>7</v>
       </c>
       <c r="D99" s="0" t="n">
-        <v>-7.6921</v>
-      </c>
-      <c r="E99" s="1" t="s">
-        <v>57</v>
+        <v>53.1424</v>
+      </c>
+      <c r="E99" s="0" t="n">
+        <v>-7.6921</v>
       </c>
       <c r="F99" s="0" t="n">
         <v>0</v>
       </c>
       <c r="G99" s="0" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B100" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="C100" s="0" t="n">
-        <v>53.1424</v>
+      <c r="A100" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C100" s="0" t="s">
+        <v>7</v>
       </c>
       <c r="D100" s="0" t="n">
-        <v>-7.6921</v>
-      </c>
-      <c r="E100" s="1" t="s">
+        <v>53.1424</v>
+      </c>
+      <c r="E100" s="0" t="n">
+        <v>-7.6921</v>
+      </c>
+      <c r="F100" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="G100" s="0" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A101" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="F100" s="0" t="n">
-        <v>9</v>
-      </c>
-      <c r="G100" s="0" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B101" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="C101" s="0" t="n">
-        <v>53.1424</v>
+      <c r="C101" s="0" t="s">
+        <v>7</v>
       </c>
       <c r="D101" s="0" t="n">
-        <v>-7.6921</v>
-      </c>
-      <c r="E101" s="1" t="s">
-        <v>58</v>
+        <v>53.1424</v>
+      </c>
+      <c r="E101" s="0" t="n">
+        <v>-7.6921</v>
       </c>
       <c r="F101" s="0" t="n">
         <v>1</v>
       </c>
       <c r="G101" s="0" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B102" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="C102" s="0" t="n">
-        <v>53.1424</v>
+      <c r="A102" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C102" s="0" t="s">
+        <v>7</v>
       </c>
       <c r="D102" s="0" t="n">
-        <v>-7.6921</v>
-      </c>
-      <c r="E102" s="1" t="s">
-        <v>59</v>
+        <v>53.1424</v>
+      </c>
+      <c r="E102" s="0" t="n">
+        <v>-7.6921</v>
       </c>
       <c r="F102" s="0" t="n">
         <v>20</v>
@@ -3684,37 +3696,37 @@
       </c>
     </row>
     <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B103" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="C103" s="0" t="n">
-        <v>53.1424</v>
+      <c r="A103" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C103" s="0" t="s">
+        <v>7</v>
       </c>
       <c r="D103" s="0" t="n">
-        <v>-7.6921</v>
-      </c>
-      <c r="E103" s="1" t="s">
-        <v>59</v>
+        <v>53.1424</v>
+      </c>
+      <c r="E103" s="0" t="n">
+        <v>-7.6921</v>
       </c>
       <c r="F103" s="0" t="n">
         <v>0</v>
       </c>
       <c r="G103" s="0" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B104" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="C104" s="0" t="n">
-        <v>53.1424</v>
+      <c r="A104" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C104" s="0" t="s">
+        <v>7</v>
       </c>
       <c r="D104" s="0" t="n">
-        <v>-7.6921</v>
-      </c>
-      <c r="E104" s="1" t="s">
-        <v>60</v>
+        <v>53.1424</v>
+      </c>
+      <c r="E104" s="0" t="n">
+        <v>-7.6921</v>
       </c>
       <c r="F104" s="0" t="n">
         <v>27</v>
@@ -3724,37 +3736,37 @@
       </c>
     </row>
     <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B105" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="C105" s="0" t="n">
-        <v>53.1424</v>
+      <c r="A105" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C105" s="0" t="s">
+        <v>7</v>
       </c>
       <c r="D105" s="0" t="n">
-        <v>-7.6921</v>
-      </c>
-      <c r="E105" s="1" t="s">
-        <v>60</v>
+        <v>53.1424</v>
+      </c>
+      <c r="E105" s="0" t="n">
+        <v>-7.6921</v>
       </c>
       <c r="F105" s="0" t="n">
         <v>0</v>
       </c>
       <c r="G105" s="0" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B106" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="C106" s="0" t="n">
-        <v>53.1424</v>
+      <c r="A106" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C106" s="0" t="s">
+        <v>7</v>
       </c>
       <c r="D106" s="0" t="n">
-        <v>-7.6921</v>
-      </c>
-      <c r="E106" s="1" t="s">
-        <v>61</v>
+        <v>53.1424</v>
+      </c>
+      <c r="E106" s="0" t="n">
+        <v>-7.6921</v>
       </c>
       <c r="F106" s="0" t="n">
         <v>39</v>
@@ -3764,37 +3776,37 @@
       </c>
     </row>
     <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B107" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="C107" s="0" t="n">
-        <v>53.1424</v>
+      <c r="A107" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C107" s="0" t="s">
+        <v>7</v>
       </c>
       <c r="D107" s="0" t="n">
-        <v>-7.6921</v>
-      </c>
-      <c r="E107" s="1" t="s">
-        <v>61</v>
+        <v>53.1424</v>
+      </c>
+      <c r="E107" s="0" t="n">
+        <v>-7.6921</v>
       </c>
       <c r="F107" s="0" t="n">
         <v>1</v>
       </c>
       <c r="G107" s="0" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B108" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="C108" s="0" t="n">
-        <v>53.1424</v>
+      <c r="A108" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C108" s="0" t="s">
+        <v>7</v>
       </c>
       <c r="D108" s="0" t="n">
-        <v>-7.6921</v>
-      </c>
-      <c r="E108" s="1" t="s">
-        <v>62</v>
+        <v>53.1424</v>
+      </c>
+      <c r="E108" s="0" t="n">
+        <v>-7.6921</v>
       </c>
       <c r="F108" s="0" t="n">
         <v>40</v>
@@ -3804,37 +3816,37 @@
       </c>
     </row>
     <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B109" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="C109" s="0" t="n">
-        <v>53.1424</v>
+      <c r="A109" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C109" s="0" t="s">
+        <v>7</v>
       </c>
       <c r="D109" s="0" t="n">
-        <v>-7.6921</v>
-      </c>
-      <c r="E109" s="1" t="s">
-        <v>62</v>
+        <v>53.1424</v>
+      </c>
+      <c r="E109" s="0" t="n">
+        <v>-7.6921</v>
       </c>
       <c r="F109" s="0" t="n">
         <v>0</v>
       </c>
       <c r="G109" s="0" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B110" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="C110" s="0" t="n">
-        <v>53.1424</v>
+      <c r="A110" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C110" s="0" t="s">
+        <v>7</v>
       </c>
       <c r="D110" s="0" t="n">
-        <v>-7.6921</v>
-      </c>
-      <c r="E110" s="1" t="s">
-        <v>64</v>
+        <v>53.1424</v>
+      </c>
+      <c r="E110" s="0" t="n">
+        <v>-7.6921</v>
       </c>
       <c r="F110" s="0" t="n">
         <v>54</v>
@@ -3844,37 +3856,37 @@
       </c>
     </row>
     <row r="111" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B111" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="C111" s="0" t="n">
-        <v>53.1424</v>
+      <c r="A111" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C111" s="0" t="s">
+        <v>7</v>
       </c>
       <c r="D111" s="0" t="n">
-        <v>-7.6921</v>
-      </c>
-      <c r="E111" s="1" t="s">
-        <v>64</v>
+        <v>53.1424</v>
+      </c>
+      <c r="E111" s="0" t="n">
+        <v>-7.6921</v>
       </c>
       <c r="F111" s="0" t="n">
         <v>0</v>
       </c>
       <c r="G111" s="0" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B112" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="C112" s="0" t="n">
-        <v>53.1424</v>
+      <c r="A112" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C112" s="0" t="s">
+        <v>7</v>
       </c>
       <c r="D112" s="0" t="n">
-        <v>-7.6921</v>
-      </c>
-      <c r="E112" s="1" t="s">
-        <v>65</v>
+        <v>53.1424</v>
+      </c>
+      <c r="E112" s="0" t="n">
+        <v>-7.6921</v>
       </c>
       <c r="F112" s="0" t="n">
         <v>69</v>
@@ -3884,37 +3896,37 @@
       </c>
     </row>
     <row r="113" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B113" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="C113" s="0" t="n">
-        <v>53.1424</v>
+      <c r="A113" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C113" s="0" t="s">
+        <v>7</v>
       </c>
       <c r="D113" s="0" t="n">
-        <v>-7.6921</v>
-      </c>
-      <c r="E113" s="1" t="s">
-        <v>65</v>
+        <v>53.1424</v>
+      </c>
+      <c r="E113" s="0" t="n">
+        <v>-7.6921</v>
       </c>
       <c r="F113" s="0" t="n">
         <v>0</v>
       </c>
       <c r="G113" s="0" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B114" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="C114" s="0" t="n">
-        <v>53.1424</v>
+      <c r="A114" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C114" s="0" t="s">
+        <v>7</v>
       </c>
       <c r="D114" s="0" t="n">
-        <v>-7.6921</v>
-      </c>
-      <c r="E114" s="1" t="s">
-        <v>66</v>
+        <v>53.1424</v>
+      </c>
+      <c r="E114" s="0" t="n">
+        <v>-7.6921</v>
       </c>
       <c r="F114" s="0" t="n">
         <v>74</v>
@@ -3924,37 +3936,37 @@
       </c>
     </row>
     <row r="115" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B115" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="C115" s="0" t="n">
-        <v>53.1424</v>
+      <c r="A115" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C115" s="0" t="s">
+        <v>7</v>
       </c>
       <c r="D115" s="0" t="n">
-        <v>-7.6921</v>
-      </c>
-      <c r="E115" s="1" t="s">
-        <v>66</v>
+        <v>53.1424</v>
+      </c>
+      <c r="E115" s="0" t="n">
+        <v>-7.6921</v>
       </c>
       <c r="F115" s="0" t="n">
         <v>0</v>
       </c>
       <c r="G115" s="0" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B116" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="C116" s="0" t="n">
-        <v>53.1424</v>
+      <c r="A116" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C116" s="0" t="s">
+        <v>7</v>
       </c>
       <c r="D116" s="0" t="n">
-        <v>-7.6921</v>
-      </c>
-      <c r="E116" s="1" t="s">
-        <v>67</v>
+        <v>53.1424</v>
+      </c>
+      <c r="E116" s="0" t="n">
+        <v>-7.6921</v>
       </c>
       <c r="F116" s="0" t="n">
         <v>191</v>
@@ -3964,37 +3976,37 @@
       </c>
     </row>
     <row r="117" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B117" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="C117" s="0" t="n">
-        <v>53.1424</v>
+      <c r="A117" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C117" s="0" t="s">
+        <v>7</v>
       </c>
       <c r="D117" s="0" t="n">
-        <v>-7.6921</v>
-      </c>
-      <c r="E117" s="1" t="s">
-        <v>67</v>
+        <v>53.1424</v>
+      </c>
+      <c r="E117" s="0" t="n">
+        <v>-7.6921</v>
       </c>
       <c r="F117" s="0" t="n">
         <v>1</v>
       </c>
       <c r="G117" s="0" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B118" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="C118" s="0" t="n">
-        <v>53.1424</v>
+      <c r="A118" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C118" s="0" t="s">
+        <v>7</v>
       </c>
       <c r="D118" s="0" t="n">
-        <v>-7.6921</v>
-      </c>
-      <c r="E118" s="1" t="s">
-        <v>68</v>
+        <v>53.1424</v>
+      </c>
+      <c r="E118" s="0" t="n">
+        <v>-7.6921</v>
       </c>
       <c r="F118" s="0" t="n">
         <v>126</v>
@@ -4004,37 +4016,37 @@
       </c>
     </row>
     <row r="119" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B119" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="C119" s="0" t="n">
-        <v>53.1424</v>
+      <c r="A119" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C119" s="0" t="s">
+        <v>7</v>
       </c>
       <c r="D119" s="0" t="n">
-        <v>-7.6921</v>
-      </c>
-      <c r="E119" s="1" t="s">
-        <v>68</v>
+        <v>53.1424</v>
+      </c>
+      <c r="E119" s="0" t="n">
+        <v>-7.6921</v>
       </c>
       <c r="F119" s="0" t="n">
         <v>0</v>
       </c>
       <c r="G119" s="0" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B120" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="C120" s="0" t="n">
-        <v>53.1424</v>
+      <c r="A120" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C120" s="0" t="s">
+        <v>7</v>
       </c>
       <c r="D120" s="0" t="n">
-        <v>-7.6921</v>
-      </c>
-      <c r="E120" s="1" t="s">
-        <v>69</v>
+        <v>53.1424</v>
+      </c>
+      <c r="E120" s="0" t="n">
+        <v>-7.6921</v>
       </c>
       <c r="F120" s="0" t="n">
         <v>102</v>
@@ -4044,37 +4056,37 @@
       </c>
     </row>
     <row r="121" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B121" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="C121" s="0" t="n">
-        <v>53.1424</v>
+      <c r="A121" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C121" s="0" t="s">
+        <v>7</v>
       </c>
       <c r="D121" s="0" t="n">
-        <v>-7.6921</v>
-      </c>
-      <c r="E121" s="1" t="s">
-        <v>69</v>
+        <v>53.1424</v>
+      </c>
+      <c r="E121" s="0" t="n">
+        <v>-7.6921</v>
       </c>
       <c r="F121" s="0" t="n">
         <v>0</v>
       </c>
       <c r="G121" s="0" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B122" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="C122" s="0" t="n">
-        <v>53.1424</v>
+      <c r="A122" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C122" s="0" t="s">
+        <v>7</v>
       </c>
       <c r="D122" s="0" t="n">
-        <v>-7.6921</v>
-      </c>
-      <c r="E122" s="1" t="s">
-        <v>70</v>
+        <v>53.1424</v>
+      </c>
+      <c r="E122" s="0" t="n">
+        <v>-7.6921</v>
       </c>
       <c r="F122" s="0" t="n">
         <v>121</v>
@@ -4084,37 +4096,37 @@
       </c>
     </row>
     <row r="123" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B123" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="C123" s="0" t="n">
-        <v>53.1424</v>
+      <c r="A123" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C123" s="0" t="s">
+        <v>7</v>
       </c>
       <c r="D123" s="0" t="n">
-        <v>-7.6921</v>
-      </c>
-      <c r="E123" s="1" t="s">
-        <v>70</v>
+        <v>53.1424</v>
+      </c>
+      <c r="E123" s="0" t="n">
+        <v>-7.6921</v>
       </c>
       <c r="F123" s="0" t="n">
         <v>1</v>
       </c>
       <c r="G123" s="0" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
     </row>
     <row r="124" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B124" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="C124" s="0" t="n">
-        <v>53.1424</v>
+      <c r="A124" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C124" s="0" t="s">
+        <v>7</v>
       </c>
       <c r="D124" s="0" t="n">
-        <v>-7.6921</v>
-      </c>
-      <c r="E124" s="1" t="s">
-        <v>71</v>
+        <v>53.1424</v>
+      </c>
+      <c r="E124" s="0" t="n">
+        <v>-7.6921</v>
       </c>
       <c r="F124" s="0" t="n">
         <v>219</v>
@@ -4124,37 +4136,37 @@
       </c>
     </row>
     <row r="125" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B125" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="C125" s="0" t="n">
-        <v>53.1424</v>
+      <c r="A125" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C125" s="0" t="s">
+        <v>7</v>
       </c>
       <c r="D125" s="0" t="n">
-        <v>-7.6921</v>
-      </c>
-      <c r="E125" s="1" t="s">
-        <v>71</v>
+        <v>53.1424</v>
+      </c>
+      <c r="E125" s="0" t="n">
+        <v>-7.6921</v>
       </c>
       <c r="F125" s="0" t="n">
         <v>2</v>
       </c>
       <c r="G125" s="0" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
     </row>
     <row r="126" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B126" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="C126" s="0" t="n">
-        <v>53.1424</v>
+      <c r="A126" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C126" s="0" t="s">
+        <v>7</v>
       </c>
       <c r="D126" s="0" t="n">
-        <v>-7.6921</v>
-      </c>
-      <c r="E126" s="1" t="s">
-        <v>72</v>
+        <v>53.1424</v>
+      </c>
+      <c r="E126" s="0" t="n">
+        <v>-7.6921</v>
       </c>
       <c r="F126" s="0" t="n">
         <v>204</v>
@@ -4164,37 +4176,37 @@
       </c>
     </row>
     <row r="127" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B127" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="C127" s="0" t="n">
-        <v>53.1424</v>
+      <c r="A127" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C127" s="0" t="s">
+        <v>7</v>
       </c>
       <c r="D127" s="0" t="n">
-        <v>-7.6921</v>
-      </c>
-      <c r="E127" s="1" t="s">
-        <v>72</v>
+        <v>53.1424</v>
+      </c>
+      <c r="E127" s="0" t="n">
+        <v>-7.6921</v>
       </c>
       <c r="F127" s="0" t="n">
         <v>1</v>
       </c>
       <c r="G127" s="0" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
     </row>
     <row r="128" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B128" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="C128" s="0" t="n">
-        <v>53.1424</v>
+      <c r="A128" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C128" s="0" t="s">
+        <v>7</v>
       </c>
       <c r="D128" s="0" t="n">
-        <v>-7.6921</v>
-      </c>
-      <c r="E128" s="1" t="s">
-        <v>73</v>
+        <v>53.1424</v>
+      </c>
+      <c r="E128" s="0" t="n">
+        <v>-7.6921</v>
       </c>
       <c r="F128" s="0" t="n">
         <v>235</v>
@@ -4204,37 +4216,37 @@
       </c>
     </row>
     <row r="129" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B129" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="C129" s="0" t="n">
-        <v>53.1424</v>
+      <c r="A129" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C129" s="0" t="s">
+        <v>7</v>
       </c>
       <c r="D129" s="0" t="n">
-        <v>-7.6921</v>
-      </c>
-      <c r="E129" s="1" t="s">
-        <v>73</v>
+        <v>53.1424</v>
+      </c>
+      <c r="E129" s="0" t="n">
+        <v>-7.6921</v>
       </c>
       <c r="F129" s="0" t="n">
         <v>2</v>
       </c>
       <c r="G129" s="0" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
     </row>
     <row r="130" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B130" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="C130" s="0" t="n">
-        <v>53.1424</v>
+      <c r="A130" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C130" s="0" t="s">
+        <v>7</v>
       </c>
       <c r="D130" s="0" t="n">
-        <v>-7.6921</v>
-      </c>
-      <c r="E130" s="1" t="s">
-        <v>74</v>
+        <v>53.1424</v>
+      </c>
+      <c r="E130" s="0" t="n">
+        <v>-7.6921</v>
       </c>
       <c r="F130" s="0" t="n">
         <v>255</v>
@@ -4244,37 +4256,37 @@
       </c>
     </row>
     <row r="131" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B131" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="C131" s="0" t="n">
-        <v>53.1424</v>
+      <c r="A131" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C131" s="0" t="s">
+        <v>7</v>
       </c>
       <c r="D131" s="0" t="n">
-        <v>-7.6921</v>
-      </c>
-      <c r="E131" s="1" t="s">
-        <v>74</v>
+        <v>53.1424</v>
+      </c>
+      <c r="E131" s="0" t="n">
+        <v>-7.6921</v>
       </c>
       <c r="F131" s="0" t="n">
         <v>10</v>
       </c>
       <c r="G131" s="0" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
     </row>
     <row r="132" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B132" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="C132" s="0" t="n">
-        <v>53.1424</v>
+      <c r="A132" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C132" s="0" t="s">
+        <v>7</v>
       </c>
       <c r="D132" s="0" t="n">
-        <v>-7.6921</v>
-      </c>
-      <c r="E132" s="1" t="s">
-        <v>75</v>
+        <v>53.1424</v>
+      </c>
+      <c r="E132" s="0" t="n">
+        <v>-7.6921</v>
       </c>
       <c r="F132" s="0" t="n">
         <v>302</v>
@@ -4284,37 +4296,37 @@
       </c>
     </row>
     <row r="133" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B133" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="C133" s="0" t="n">
-        <v>53.1424</v>
+      <c r="A133" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C133" s="0" t="s">
+        <v>7</v>
       </c>
       <c r="D133" s="0" t="n">
-        <v>-7.6921</v>
-      </c>
-      <c r="E133" s="1" t="s">
-        <v>75</v>
+        <v>53.1424</v>
+      </c>
+      <c r="E133" s="0" t="n">
+        <v>-7.6921</v>
       </c>
       <c r="F133" s="0" t="n">
         <v>3</v>
       </c>
       <c r="G133" s="0" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
     </row>
     <row r="134" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B134" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="C134" s="0" t="n">
-        <v>53.1424</v>
+      <c r="A134" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C134" s="0" t="s">
+        <v>7</v>
       </c>
       <c r="D134" s="0" t="n">
-        <v>-7.6921</v>
-      </c>
-      <c r="E134" s="1" t="s">
-        <v>76</v>
+        <v>53.1424</v>
+      </c>
+      <c r="E134" s="0" t="n">
+        <v>-7.6921</v>
       </c>
       <c r="F134" s="0" t="n">
         <v>294</v>
@@ -4324,37 +4336,37 @@
       </c>
     </row>
     <row r="135" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B135" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="C135" s="0" t="n">
-        <v>53.1424</v>
+      <c r="A135" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C135" s="0" t="s">
+        <v>7</v>
       </c>
       <c r="D135" s="0" t="n">
-        <v>-7.6921</v>
-      </c>
-      <c r="E135" s="1" t="s">
-        <v>76</v>
+        <v>53.1424</v>
+      </c>
+      <c r="E135" s="0" t="n">
+        <v>-7.6921</v>
       </c>
       <c r="F135" s="0" t="n">
         <v>14</v>
       </c>
       <c r="G135" s="0" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
     </row>
     <row r="136" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B136" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="C136" s="0" t="n">
-        <v>53.1424</v>
+      <c r="A136" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C136" s="0" t="s">
+        <v>7</v>
       </c>
       <c r="D136" s="0" t="n">
-        <v>-7.6921</v>
-      </c>
-      <c r="E136" s="1" t="s">
-        <v>77</v>
+        <v>53.1424</v>
+      </c>
+      <c r="E136" s="0" t="n">
+        <v>-7.6921</v>
       </c>
       <c r="F136" s="0" t="n">
         <v>200</v>
@@ -4364,37 +4376,37 @@
       </c>
     </row>
     <row r="137" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B137" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="C137" s="0" t="n">
-        <v>53.1424</v>
+      <c r="A137" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C137" s="0" t="s">
+        <v>7</v>
       </c>
       <c r="D137" s="0" t="n">
-        <v>-7.6921</v>
-      </c>
-      <c r="E137" s="1" t="s">
-        <v>77</v>
+        <v>53.1424</v>
+      </c>
+      <c r="E137" s="0" t="n">
+        <v>-7.6921</v>
       </c>
       <c r="F137" s="0" t="n">
         <v>10</v>
       </c>
       <c r="G137" s="0" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
     </row>
     <row r="138" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B138" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="C138" s="0" t="n">
-        <v>53.1424</v>
+      <c r="A138" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C138" s="0" t="s">
+        <v>7</v>
       </c>
       <c r="D138" s="0" t="n">
-        <v>-7.6921</v>
-      </c>
-      <c r="E138" s="1" t="s">
-        <v>78</v>
+        <v>53.1424</v>
+      </c>
+      <c r="E138" s="0" t="n">
+        <v>-7.6921</v>
       </c>
       <c r="F138" s="0" t="n">
         <v>295</v>
@@ -4404,37 +4416,37 @@
       </c>
     </row>
     <row r="139" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B139" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="C139" s="0" t="n">
-        <v>53.1424</v>
+      <c r="A139" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C139" s="0" t="s">
+        <v>7</v>
       </c>
       <c r="D139" s="0" t="n">
-        <v>-7.6921</v>
-      </c>
-      <c r="E139" s="1" t="s">
-        <v>78</v>
+        <v>53.1424</v>
+      </c>
+      <c r="E139" s="0" t="n">
+        <v>-7.6921</v>
       </c>
       <c r="F139" s="0" t="n">
         <v>8</v>
       </c>
       <c r="G139" s="0" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
     </row>
     <row r="140" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B140" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="C140" s="0" t="n">
-        <v>53.1424</v>
+      <c r="A140" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C140" s="0" t="s">
+        <v>7</v>
       </c>
       <c r="D140" s="0" t="n">
-        <v>-7.6921</v>
-      </c>
-      <c r="E140" s="1" t="s">
-        <v>79</v>
+        <v>53.1424</v>
+      </c>
+      <c r="E140" s="0" t="n">
+        <v>-7.6921</v>
       </c>
       <c r="F140" s="0" t="n">
         <v>325</v>
@@ -4444,37 +4456,37 @@
       </c>
     </row>
     <row r="141" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B141" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="C141" s="0" t="n">
-        <v>53.1424</v>
+      <c r="A141" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C141" s="0" t="s">
+        <v>7</v>
       </c>
       <c r="D141" s="0" t="n">
-        <v>-7.6921</v>
-      </c>
-      <c r="E141" s="1" t="s">
-        <v>79</v>
+        <v>53.1424</v>
+      </c>
+      <c r="E141" s="0" t="n">
+        <v>-7.6921</v>
       </c>
       <c r="F141" s="0" t="n">
         <v>17</v>
       </c>
       <c r="G141" s="0" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
     </row>
     <row r="142" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B142" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="C142" s="0" t="n">
-        <v>53.1424</v>
+      <c r="A142" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="C142" s="0" t="s">
+        <v>7</v>
       </c>
       <c r="D142" s="0" t="n">
-        <v>-7.6921</v>
-      </c>
-      <c r="E142" s="1" t="s">
-        <v>80</v>
+        <v>53.1424</v>
+      </c>
+      <c r="E142" s="0" t="n">
+        <v>-7.6921</v>
       </c>
       <c r="F142" s="0" t="n">
         <v>212</v>
@@ -4484,37 +4496,37 @@
       </c>
     </row>
     <row r="143" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B143" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="C143" s="0" t="n">
-        <v>53.1424</v>
+      <c r="A143" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="C143" s="0" t="s">
+        <v>7</v>
       </c>
       <c r="D143" s="0" t="n">
-        <v>-7.6921</v>
-      </c>
-      <c r="E143" s="1" t="s">
-        <v>80</v>
+        <v>53.1424</v>
+      </c>
+      <c r="E143" s="0" t="n">
+        <v>-7.6921</v>
       </c>
       <c r="F143" s="0" t="n">
         <v>14</v>
       </c>
       <c r="G143" s="0" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
     </row>
     <row r="144" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B144" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="C144" s="0" t="n">
-        <v>53.1424</v>
+      <c r="A144" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="C144" s="0" t="s">
+        <v>7</v>
       </c>
       <c r="D144" s="0" t="n">
-        <v>-7.6921</v>
-      </c>
-      <c r="E144" s="1" t="s">
-        <v>81</v>
+        <v>53.1424</v>
+      </c>
+      <c r="E144" s="0" t="n">
+        <v>-7.6921</v>
       </c>
       <c r="F144" s="0" t="n">
         <v>402</v>
@@ -4524,37 +4536,37 @@
       </c>
     </row>
     <row r="145" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B145" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="C145" s="0" t="n">
-        <v>53.1424</v>
+      <c r="A145" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="C145" s="0" t="s">
+        <v>7</v>
       </c>
       <c r="D145" s="0" t="n">
-        <v>-7.6921</v>
-      </c>
-      <c r="E145" s="1" t="s">
-        <v>81</v>
+        <v>53.1424</v>
+      </c>
+      <c r="E145" s="0" t="n">
+        <v>-7.6921</v>
       </c>
       <c r="F145" s="0" t="n">
         <v>13</v>
       </c>
       <c r="G145" s="0" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
     </row>
     <row r="146" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B146" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="C146" s="0" t="n">
-        <v>53.1424</v>
+      <c r="A146" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C146" s="0" t="s">
+        <v>7</v>
       </c>
       <c r="D146" s="0" t="n">
-        <v>-7.6921</v>
-      </c>
-      <c r="E146" s="1" t="s">
-        <v>82</v>
+        <v>53.1424</v>
+      </c>
+      <c r="E146" s="0" t="n">
+        <v>-7.6921</v>
       </c>
       <c r="F146" s="0" t="n">
         <v>424</v>
@@ -4564,57 +4576,57 @@
       </c>
     </row>
     <row r="147" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B147" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="C147" s="0" t="n">
-        <v>53.1424</v>
+      <c r="A147" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C147" s="0" t="s">
+        <v>7</v>
       </c>
       <c r="D147" s="0" t="n">
-        <v>-7.6921</v>
-      </c>
-      <c r="E147" s="1" t="s">
-        <v>82</v>
+        <v>53.1424</v>
+      </c>
+      <c r="E147" s="0" t="n">
+        <v>-7.6921</v>
       </c>
       <c r="F147" s="0" t="n">
         <v>22</v>
       </c>
       <c r="G147" s="0" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
     </row>
     <row r="148" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B148" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="C148" s="0" t="n">
-        <v>53.1424</v>
+      <c r="A148" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C148" s="0" t="s">
+        <v>7</v>
       </c>
       <c r="D148" s="0" t="n">
-        <v>-7.6921</v>
-      </c>
-      <c r="E148" s="1" t="s">
-        <v>82</v>
+        <v>53.1424</v>
+      </c>
+      <c r="E148" s="0" t="n">
+        <v>-7.6921</v>
       </c>
       <c r="F148" s="0" t="n">
         <v>43</v>
       </c>
       <c r="G148" s="0" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
     </row>
     <row r="149" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B149" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="C149" s="0" t="n">
-        <v>53.1424</v>
+      <c r="A149" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C149" s="0" t="s">
+        <v>7</v>
       </c>
       <c r="D149" s="0" t="n">
-        <v>-7.6921</v>
-      </c>
-      <c r="E149" s="1" t="s">
-        <v>83</v>
+        <v>53.1424</v>
+      </c>
+      <c r="E149" s="0" t="n">
+        <v>-7.6921</v>
       </c>
       <c r="F149" s="0" t="n">
         <v>331</v>
@@ -4624,37 +4636,37 @@
       </c>
     </row>
     <row r="150" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B150" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="C150" s="0" t="n">
-        <v>53.1424</v>
+      <c r="A150" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C150" s="0" t="s">
+        <v>7</v>
       </c>
       <c r="D150" s="0" t="n">
-        <v>-7.6921</v>
-      </c>
-      <c r="E150" s="1" t="s">
-        <v>83</v>
+        <v>53.1424</v>
+      </c>
+      <c r="E150" s="0" t="n">
+        <v>-7.6921</v>
       </c>
       <c r="F150" s="0" t="n">
         <v>17</v>
       </c>
       <c r="G150" s="0" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
     </row>
     <row r="151" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B151" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="C151" s="0" t="n">
-        <v>53.1424</v>
+      <c r="A151" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C151" s="0" t="s">
+        <v>7</v>
       </c>
       <c r="D151" s="0" t="n">
-        <v>-7.6921</v>
-      </c>
-      <c r="E151" s="1" t="s">
-        <v>84</v>
+        <v>53.1424</v>
+      </c>
+      <c r="E151" s="0" t="n">
+        <v>-7.6921</v>
       </c>
       <c r="F151" s="0" t="n">
         <v>390</v>
@@ -4664,37 +4676,37 @@
       </c>
     </row>
     <row r="152" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B152" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="C152" s="0" t="n">
-        <v>53.1424</v>
+      <c r="A152" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C152" s="0" t="s">
+        <v>7</v>
       </c>
       <c r="D152" s="0" t="n">
-        <v>-7.6921</v>
-      </c>
-      <c r="E152" s="1" t="s">
-        <v>84</v>
+        <v>53.1424</v>
+      </c>
+      <c r="E152" s="0" t="n">
+        <v>-7.6921</v>
       </c>
       <c r="F152" s="0" t="n">
         <v>21</v>
       </c>
       <c r="G152" s="0" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
     </row>
     <row r="153" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B153" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="C153" s="0" t="n">
-        <v>53.1424</v>
+      <c r="A153" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C153" s="0" t="s">
+        <v>7</v>
       </c>
       <c r="D153" s="0" t="n">
-        <v>-7.6921</v>
-      </c>
-      <c r="E153" s="1" t="s">
-        <v>85</v>
+        <v>53.1424</v>
+      </c>
+      <c r="E153" s="0" t="n">
+        <v>-7.6921</v>
       </c>
       <c r="F153" s="0" t="n">
         <v>370</v>
@@ -4704,37 +4716,37 @@
       </c>
     </row>
     <row r="154" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B154" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="C154" s="0" t="n">
-        <v>53.1424</v>
+      <c r="A154" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C154" s="0" t="s">
+        <v>7</v>
       </c>
       <c r="D154" s="0" t="n">
-        <v>-7.6921</v>
-      </c>
-      <c r="E154" s="1" t="s">
-        <v>85</v>
+        <v>53.1424</v>
+      </c>
+      <c r="E154" s="0" t="n">
+        <v>-7.6921</v>
       </c>
       <c r="F154" s="0" t="n">
         <v>16</v>
       </c>
       <c r="G154" s="0" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
     </row>
     <row r="155" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B155" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="C155" s="0" t="n">
-        <v>53.1424</v>
+      <c r="A155" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C155" s="0" t="s">
+        <v>7</v>
       </c>
       <c r="D155" s="0" t="n">
-        <v>-7.6921</v>
-      </c>
-      <c r="E155" s="1" t="s">
-        <v>86</v>
+        <v>53.1424</v>
+      </c>
+      <c r="E155" s="0" t="n">
+        <v>-7.6921</v>
       </c>
       <c r="F155" s="0" t="n">
         <v>345</v>
@@ -4744,37 +4756,37 @@
       </c>
     </row>
     <row r="156" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B156" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="C156" s="0" t="n">
-        <v>53.1424</v>
+      <c r="A156" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C156" s="0" t="s">
+        <v>7</v>
       </c>
       <c r="D156" s="0" t="n">
-        <v>-7.6921</v>
-      </c>
-      <c r="E156" s="1" t="s">
-        <v>86</v>
+        <v>53.1424</v>
+      </c>
+      <c r="E156" s="0" t="n">
+        <v>-7.6921</v>
       </c>
       <c r="F156" s="0" t="n">
         <v>36</v>
       </c>
       <c r="G156" s="0" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
     </row>
     <row r="157" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B157" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="C157" s="0" t="n">
-        <v>53.1424</v>
+      <c r="A157" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C157" s="0" t="s">
+        <v>7</v>
       </c>
       <c r="D157" s="0" t="n">
-        <v>-7.6921</v>
-      </c>
-      <c r="E157" s="1" t="s">
-        <v>87</v>
+        <v>53.1424</v>
+      </c>
+      <c r="E157" s="0" t="n">
+        <v>-7.6921</v>
       </c>
       <c r="F157" s="0" t="n">
         <v>365</v>
@@ -4784,37 +4796,37 @@
       </c>
     </row>
     <row r="158" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B158" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="C158" s="0" t="n">
-        <v>53.1424</v>
+      <c r="A158" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C158" s="0" t="s">
+        <v>7</v>
       </c>
       <c r="D158" s="0" t="n">
-        <v>-7.6921</v>
-      </c>
-      <c r="E158" s="1" t="s">
-        <v>87</v>
+        <v>53.1424</v>
+      </c>
+      <c r="E158" s="0" t="n">
+        <v>-7.6921</v>
       </c>
       <c r="F158" s="0" t="n">
         <v>25</v>
       </c>
       <c r="G158" s="0" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
     </row>
     <row r="159" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B159" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="C159" s="0" t="n">
-        <v>53.1424</v>
+      <c r="A159" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C159" s="0" t="s">
+        <v>7</v>
       </c>
       <c r="D159" s="0" t="n">
-        <v>-7.6921</v>
-      </c>
-      <c r="E159" s="1" t="s">
-        <v>88</v>
+        <v>53.1424</v>
+      </c>
+      <c r="E159" s="0" t="n">
+        <v>-7.6921</v>
       </c>
       <c r="F159" s="0" t="n">
         <v>500</v>
@@ -4824,37 +4836,37 @@
       </c>
     </row>
     <row r="160" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B160" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="C160" s="0" t="n">
-        <v>53.1424</v>
+      <c r="A160" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C160" s="0" t="s">
+        <v>7</v>
       </c>
       <c r="D160" s="0" t="n">
-        <v>-7.6921</v>
-      </c>
-      <c r="E160" s="1" t="s">
-        <v>88</v>
+        <v>53.1424</v>
+      </c>
+      <c r="E160" s="0" t="n">
+        <v>-7.6921</v>
       </c>
       <c r="F160" s="0" t="n">
         <v>28</v>
       </c>
       <c r="G160" s="0" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
     </row>
     <row r="161" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B161" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="C161" s="0" t="n">
-        <v>53.1424</v>
+      <c r="A161" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C161" s="0" t="s">
+        <v>7</v>
       </c>
       <c r="D161" s="0" t="n">
-        <v>-7.6921</v>
-      </c>
-      <c r="E161" s="1" t="s">
-        <v>89</v>
+        <v>53.1424</v>
+      </c>
+      <c r="E161" s="0" t="n">
+        <v>-7.6921</v>
       </c>
       <c r="F161" s="0" t="n">
         <v>480</v>
@@ -4864,37 +4876,37 @@
       </c>
     </row>
     <row r="162" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B162" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="C162" s="0" t="n">
-        <v>53.1424</v>
+      <c r="A162" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C162" s="0" t="s">
+        <v>7</v>
       </c>
       <c r="D162" s="0" t="n">
-        <v>-7.6921</v>
-      </c>
-      <c r="E162" s="1" t="s">
-        <v>89</v>
+        <v>53.1424</v>
+      </c>
+      <c r="E162" s="0" t="n">
+        <v>-7.6921</v>
       </c>
       <c r="F162" s="0" t="n">
         <v>26</v>
       </c>
       <c r="G162" s="0" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
     </row>
     <row r="163" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B163" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="C163" s="0" t="n">
-        <v>53.1424</v>
+      <c r="A163" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C163" s="0" t="s">
+        <v>7</v>
       </c>
       <c r="D163" s="0" t="n">
-        <v>-7.6921</v>
-      </c>
-      <c r="E163" s="1" t="s">
-        <v>90</v>
+        <v>53.1424</v>
+      </c>
+      <c r="E163" s="0" t="n">
+        <v>-7.6921</v>
       </c>
       <c r="F163" s="0" t="n">
         <v>553</v>
@@ -4904,37 +4916,37 @@
       </c>
     </row>
     <row r="164" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B164" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="C164" s="0" t="n">
-        <v>53.1424</v>
+      <c r="A164" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C164" s="0" t="s">
+        <v>7</v>
       </c>
       <c r="D164" s="0" t="n">
-        <v>-7.6921</v>
-      </c>
-      <c r="E164" s="1" t="s">
-        <v>90</v>
+        <v>53.1424</v>
+      </c>
+      <c r="E164" s="0" t="n">
+        <v>-7.6921</v>
       </c>
       <c r="F164" s="0" t="n">
         <v>33</v>
       </c>
       <c r="G164" s="0" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
     </row>
     <row r="165" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B165" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="C165" s="0" t="n">
-        <v>53.1424</v>
+      <c r="A165" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C165" s="0" t="s">
+        <v>7</v>
       </c>
       <c r="D165" s="0" t="n">
-        <v>-7.6921</v>
-      </c>
-      <c r="E165" s="1" t="s">
-        <v>91</v>
+        <v>53.1424</v>
+      </c>
+      <c r="E165" s="0" t="n">
+        <v>-7.6921</v>
       </c>
       <c r="F165" s="0" t="n">
         <v>430</v>
@@ -4944,37 +4956,37 @@
       </c>
     </row>
     <row r="166" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B166" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="C166" s="0" t="n">
-        <v>53.1424</v>
+      <c r="A166" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C166" s="0" t="s">
+        <v>7</v>
       </c>
       <c r="D166" s="0" t="n">
-        <v>-7.6921</v>
-      </c>
-      <c r="E166" s="1" t="s">
-        <v>91</v>
+        <v>53.1424</v>
+      </c>
+      <c r="E166" s="0" t="n">
+        <v>-7.6921</v>
       </c>
       <c r="F166" s="0" t="n">
         <v>14</v>
       </c>
       <c r="G166" s="0" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
     </row>
     <row r="167" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B167" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="C167" s="0" t="n">
-        <v>53.1424</v>
+      <c r="A167" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C167" s="0" t="s">
+        <v>7</v>
       </c>
       <c r="D167" s="0" t="n">
-        <v>-7.6921</v>
-      </c>
-      <c r="E167" s="1" t="s">
-        <v>92</v>
+        <v>53.1424</v>
+      </c>
+      <c r="E167" s="0" t="n">
+        <v>-7.6921</v>
       </c>
       <c r="F167" s="0" t="n">
         <v>527</v>
@@ -4984,37 +4996,37 @@
       </c>
     </row>
     <row r="168" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B168" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="C168" s="0" t="n">
-        <v>53.1424</v>
+      <c r="A168" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C168" s="0" t="s">
+        <v>7</v>
       </c>
       <c r="D168" s="0" t="n">
-        <v>-7.6921</v>
-      </c>
-      <c r="E168" s="1" t="s">
-        <v>92</v>
+        <v>53.1424</v>
+      </c>
+      <c r="E168" s="0" t="n">
+        <v>-7.6921</v>
       </c>
       <c r="F168" s="0" t="n">
         <v>31</v>
       </c>
       <c r="G168" s="0" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
     </row>
     <row r="169" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B169" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="C169" s="0" t="n">
-        <v>53.1424</v>
+      <c r="A169" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C169" s="0" t="s">
+        <v>7</v>
       </c>
       <c r="D169" s="0" t="n">
-        <v>-7.6921</v>
-      </c>
-      <c r="E169" s="1" t="s">
-        <v>93</v>
+        <v>53.1424</v>
+      </c>
+      <c r="E169" s="0" t="n">
+        <v>-7.6921</v>
       </c>
       <c r="F169" s="0" t="n">
         <v>548</v>
@@ -5024,37 +5036,37 @@
       </c>
     </row>
     <row r="170" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B170" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="C170" s="0" t="n">
-        <v>53.1424</v>
+      <c r="A170" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C170" s="0" t="s">
+        <v>7</v>
       </c>
       <c r="D170" s="0" t="n">
-        <v>-7.6921</v>
-      </c>
-      <c r="E170" s="1" t="s">
-        <v>93</v>
+        <v>53.1424</v>
+      </c>
+      <c r="E170" s="0" t="n">
+        <v>-7.6921</v>
       </c>
       <c r="F170" s="0" t="n">
         <v>41</v>
       </c>
       <c r="G170" s="0" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
     </row>
     <row r="171" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B171" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="C171" s="0" t="n">
-        <v>53.1424</v>
+      <c r="A171" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="C171" s="0" t="s">
+        <v>7</v>
       </c>
       <c r="D171" s="0" t="n">
-        <v>-7.6921</v>
-      </c>
-      <c r="E171" s="1" t="s">
-        <v>94</v>
+        <v>53.1424</v>
+      </c>
+      <c r="E171" s="0" t="n">
+        <v>-7.6921</v>
       </c>
       <c r="F171" s="0" t="n">
         <v>657</v>
@@ -5064,37 +5076,37 @@
       </c>
     </row>
     <row r="172" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B172" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="C172" s="0" t="n">
-        <v>53.1424</v>
+      <c r="A172" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="C172" s="0" t="s">
+        <v>7</v>
       </c>
       <c r="D172" s="0" t="n">
-        <v>-7.6921</v>
-      </c>
-      <c r="E172" s="1" t="s">
-        <v>94</v>
+        <v>53.1424</v>
+      </c>
+      <c r="E172" s="0" t="n">
+        <v>-7.6921</v>
       </c>
       <c r="F172" s="0" t="n">
         <v>38</v>
       </c>
       <c r="G172" s="0" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
     </row>
     <row r="173" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B173" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="C173" s="0" t="n">
-        <v>53.1424</v>
+      <c r="A173" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C173" s="0" t="s">
+        <v>7</v>
       </c>
       <c r="D173" s="0" t="n">
-        <v>-7.6921</v>
-      </c>
-      <c r="E173" s="1" t="s">
-        <v>95</v>
+        <v>53.1424</v>
+      </c>
+      <c r="E173" s="0" t="n">
+        <v>-7.6921</v>
       </c>
       <c r="F173" s="0" t="n">
         <v>629</v>
@@ -5104,37 +5116,37 @@
       </c>
     </row>
     <row r="174" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B174" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="C174" s="0" t="n">
-        <v>53.1424</v>
+      <c r="A174" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C174" s="0" t="s">
+        <v>7</v>
       </c>
       <c r="D174" s="0" t="n">
-        <v>-7.6921</v>
-      </c>
-      <c r="E174" s="1" t="s">
-        <v>95</v>
+        <v>53.1424</v>
+      </c>
+      <c r="E174" s="0" t="n">
+        <v>-7.6921</v>
       </c>
       <c r="F174" s="0" t="n">
         <v>43</v>
       </c>
       <c r="G174" s="0" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
     </row>
     <row r="175" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B175" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="C175" s="0" t="n">
-        <v>53.1424</v>
+      <c r="A175" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="C175" s="0" t="s">
+        <v>7</v>
       </c>
       <c r="D175" s="0" t="n">
-        <v>-7.6921</v>
-      </c>
-      <c r="E175" s="1" t="s">
-        <v>96</v>
+        <v>53.1424</v>
+      </c>
+      <c r="E175" s="0" t="n">
+        <v>-7.6921</v>
       </c>
       <c r="F175" s="0" t="n">
         <v>597</v>
@@ -5144,37 +5156,37 @@
       </c>
     </row>
     <row r="176" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B176" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="C176" s="0" t="n">
-        <v>53.1424</v>
+      <c r="A176" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="C176" s="0" t="s">
+        <v>7</v>
       </c>
       <c r="D176" s="0" t="n">
-        <v>-7.6921</v>
-      </c>
-      <c r="E176" s="1" t="s">
-        <v>96</v>
+        <v>53.1424</v>
+      </c>
+      <c r="E176" s="0" t="n">
+        <v>-7.6921</v>
       </c>
       <c r="F176" s="0" t="n">
         <v>44</v>
       </c>
       <c r="G176" s="0" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
     </row>
     <row r="177" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B177" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="C177" s="0" t="n">
-        <v>53.1424</v>
+      <c r="A177" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="C177" s="0" t="s">
+        <v>7</v>
       </c>
       <c r="D177" s="0" t="n">
-        <v>-7.6921</v>
-      </c>
-      <c r="E177" s="1" t="s">
-        <v>97</v>
+        <v>53.1424</v>
+      </c>
+      <c r="E177" s="0" t="n">
+        <v>-7.6921</v>
       </c>
       <c r="F177" s="0" t="n">
         <v>630</v>
@@ -5184,37 +5196,37 @@
       </c>
     </row>
     <row r="178" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B178" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="C178" s="0" t="n">
-        <v>53.1424</v>
+      <c r="A178" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="C178" s="0" t="s">
+        <v>7</v>
       </c>
       <c r="D178" s="0" t="n">
-        <v>-7.6921</v>
-      </c>
-      <c r="E178" s="1" t="s">
-        <v>97</v>
+        <v>53.1424</v>
+      </c>
+      <c r="E178" s="0" t="n">
+        <v>-7.6921</v>
       </c>
       <c r="F178" s="0" t="n">
         <v>41</v>
       </c>
       <c r="G178" s="0" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
     </row>
     <row r="179" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B179" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="C179" s="0" t="n">
-        <v>53.1424</v>
+      <c r="A179" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="C179" s="0" t="s">
+        <v>7</v>
       </c>
       <c r="D179" s="0" t="n">
-        <v>-7.6921</v>
-      </c>
-      <c r="E179" s="1" t="s">
-        <v>98</v>
+        <v>53.1424</v>
+      </c>
+      <c r="E179" s="0" t="n">
+        <v>-7.6921</v>
       </c>
       <c r="F179" s="0" t="n">
         <v>445</v>
@@ -5224,37 +5236,37 @@
       </c>
     </row>
     <row r="180" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B180" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="C180" s="0" t="n">
-        <v>53.1424</v>
+      <c r="A180" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="C180" s="0" t="s">
+        <v>7</v>
       </c>
       <c r="D180" s="0" t="n">
-        <v>-7.6921</v>
-      </c>
-      <c r="E180" s="1" t="s">
-        <v>98</v>
+        <v>53.1424</v>
+      </c>
+      <c r="E180" s="0" t="n">
+        <v>-7.6921</v>
       </c>
       <c r="F180" s="0" t="n">
         <v>39</v>
       </c>
       <c r="G180" s="0" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
     </row>
     <row r="181" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B181" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="C181" s="0" t="n">
-        <v>53.1424</v>
+      <c r="A181" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="C181" s="0" t="s">
+        <v>7</v>
       </c>
       <c r="D181" s="0" t="n">
-        <v>-7.6921</v>
-      </c>
-      <c r="E181" s="1" t="s">
-        <v>99</v>
+        <v>53.1424</v>
+      </c>
+      <c r="E181" s="0" t="n">
+        <v>-7.6921</v>
       </c>
       <c r="F181" s="0" t="n">
         <v>401</v>
@@ -5264,37 +5276,37 @@
       </c>
     </row>
     <row r="182" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B182" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="C182" s="0" t="n">
-        <v>53.1424</v>
+      <c r="A182" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="C182" s="0" t="s">
+        <v>7</v>
       </c>
       <c r="D182" s="0" t="n">
-        <v>-7.6921</v>
-      </c>
-      <c r="E182" s="1" t="s">
-        <v>99</v>
+        <v>53.1424</v>
+      </c>
+      <c r="E182" s="0" t="n">
+        <v>-7.6921</v>
       </c>
       <c r="F182" s="0" t="n">
         <v>77</v>
       </c>
       <c r="G182" s="0" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
     </row>
     <row r="183" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B183" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="C183" s="0" t="n">
-        <v>53.1424</v>
+      <c r="A183" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="C183" s="0" t="s">
+        <v>7</v>
       </c>
       <c r="D183" s="0" t="n">
-        <v>-7.6921</v>
-      </c>
-      <c r="E183" s="1" t="s">
-        <v>100</v>
+        <v>53.1424</v>
+      </c>
+      <c r="E183" s="0" t="n">
+        <v>-7.6921</v>
       </c>
       <c r="F183" s="0" t="n">
         <v>388</v>
@@ -5304,37 +5316,37 @@
       </c>
     </row>
     <row r="184" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B184" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="C184" s="0" t="n">
-        <v>53.1424</v>
+      <c r="A184" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="C184" s="0" t="s">
+        <v>7</v>
       </c>
       <c r="D184" s="0" t="n">
-        <v>-7.6921</v>
-      </c>
-      <c r="E184" s="1" t="s">
-        <v>100</v>
+        <v>53.1424</v>
+      </c>
+      <c r="E184" s="0" t="n">
+        <v>-7.6921</v>
       </c>
       <c r="F184" s="0" t="n">
         <v>44</v>
       </c>
       <c r="G184" s="0" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
     </row>
     <row r="185" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B185" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="C185" s="0" t="n">
-        <v>53.1424</v>
+      <c r="A185" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="C185" s="0" t="s">
+        <v>7</v>
       </c>
       <c r="D185" s="0" t="n">
-        <v>-7.6921</v>
-      </c>
-      <c r="E185" s="1" t="s">
-        <v>101</v>
+        <v>53.1424</v>
+      </c>
+      <c r="E185" s="0" t="n">
+        <v>-7.6921</v>
       </c>
       <c r="F185" s="0" t="n">
         <v>631</v>
@@ -5344,37 +5356,37 @@
       </c>
     </row>
     <row r="186" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B186" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="C186" s="0" t="n">
-        <v>53.1424</v>
+      <c r="A186" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="C186" s="0" t="s">
+        <v>7</v>
       </c>
       <c r="D186" s="0" t="n">
-        <v>-7.6921</v>
-      </c>
-      <c r="E186" s="1" t="s">
-        <v>101</v>
+        <v>53.1424</v>
+      </c>
+      <c r="E186" s="0" t="n">
+        <v>-7.6921</v>
       </c>
       <c r="F186" s="0" t="n">
         <v>49</v>
       </c>
       <c r="G186" s="0" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
     </row>
     <row r="187" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B187" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="C187" s="0" t="n">
-        <v>53.1424</v>
+      <c r="A187" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="C187" s="0" t="s">
+        <v>7</v>
       </c>
       <c r="D187" s="0" t="n">
-        <v>-7.6921</v>
-      </c>
-      <c r="E187" s="1" t="s">
-        <v>102</v>
+        <v>53.1424</v>
+      </c>
+      <c r="E187" s="0" t="n">
+        <v>-7.6921</v>
       </c>
       <c r="F187" s="0" t="n">
         <v>936</v>
@@ -5384,37 +5396,37 @@
       </c>
     </row>
     <row r="188" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B188" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="C188" s="0" t="n">
-        <v>53.1424</v>
+      <c r="A188" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="C188" s="0" t="s">
+        <v>7</v>
       </c>
       <c r="D188" s="0" t="n">
-        <v>-7.6921</v>
-      </c>
-      <c r="E188" s="1" t="s">
-        <v>102</v>
+        <v>53.1424</v>
+      </c>
+      <c r="E188" s="0" t="n">
+        <v>-7.6921</v>
       </c>
       <c r="F188" s="0" t="n">
         <v>28</v>
       </c>
       <c r="G188" s="0" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
     </row>
     <row r="189" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B189" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="C189" s="0" t="n">
-        <v>53.1424</v>
+      <c r="A189" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="C189" s="0" t="s">
+        <v>7</v>
       </c>
       <c r="D189" s="0" t="n">
-        <v>-7.6921</v>
-      </c>
-      <c r="E189" s="1" t="s">
-        <v>103</v>
+        <v>53.1424</v>
+      </c>
+      <c r="E189" s="0" t="n">
+        <v>-7.6921</v>
       </c>
       <c r="F189" s="0" t="n">
         <v>577</v>
@@ -5424,37 +5436,37 @@
       </c>
     </row>
     <row r="190" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B190" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="C190" s="0" t="n">
-        <v>53.1424</v>
+      <c r="A190" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="C190" s="0" t="s">
+        <v>7</v>
       </c>
       <c r="D190" s="0" t="n">
-        <v>-7.6921</v>
-      </c>
-      <c r="E190" s="1" t="s">
-        <v>103</v>
+        <v>53.1424</v>
+      </c>
+      <c r="E190" s="0" t="n">
+        <v>-7.6921</v>
       </c>
       <c r="F190" s="0" t="n">
         <v>37</v>
       </c>
       <c r="G190" s="0" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
     </row>
     <row r="191" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B191" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="C191" s="0" t="n">
-        <v>53.1424</v>
+      <c r="A191" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="C191" s="0" t="s">
+        <v>7</v>
       </c>
       <c r="D191" s="0" t="n">
-        <v>-7.6921</v>
-      </c>
-      <c r="E191" s="1" t="s">
-        <v>104</v>
+        <v>53.1424</v>
+      </c>
+      <c r="E191" s="0" t="n">
+        <v>-7.6921</v>
       </c>
       <c r="F191" s="0" t="n">
         <v>377</v>
@@ -5464,37 +5476,37 @@
       </c>
     </row>
     <row r="192" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B192" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="C192" s="0" t="n">
-        <v>53.1424</v>
+      <c r="A192" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="C192" s="0" t="s">
+        <v>7</v>
       </c>
       <c r="D192" s="0" t="n">
-        <v>-7.6921</v>
-      </c>
-      <c r="E192" s="1" t="s">
-        <v>104</v>
+        <v>53.1424</v>
+      </c>
+      <c r="E192" s="0" t="n">
+        <v>-7.6921</v>
       </c>
       <c r="F192" s="0" t="n">
         <v>42</v>
       </c>
       <c r="G192" s="0" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
     </row>
     <row r="193" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B193" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="C193" s="0" t="n">
-        <v>53.1424</v>
+      <c r="A193" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C193" s="0" t="s">
+        <v>7</v>
       </c>
       <c r="D193" s="0" t="n">
-        <v>-7.6921</v>
-      </c>
-      <c r="E193" s="1" t="s">
-        <v>105</v>
+        <v>53.1424</v>
+      </c>
+      <c r="E193" s="0" t="n">
+        <v>-7.6921</v>
       </c>
       <c r="F193" s="0" t="n">
         <v>701</v>
@@ -5504,37 +5516,37 @@
       </c>
     </row>
     <row r="194" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B194" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="C194" s="0" t="n">
-        <v>53.1424</v>
+      <c r="A194" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C194" s="0" t="s">
+        <v>7</v>
       </c>
       <c r="D194" s="0" t="n">
-        <v>-7.6921</v>
-      </c>
-      <c r="E194" s="1" t="s">
-        <v>105</v>
+        <v>53.1424</v>
+      </c>
+      <c r="E194" s="0" t="n">
+        <v>-7.6921</v>
       </c>
       <c r="F194" s="0" t="n">
         <v>26</v>
       </c>
       <c r="G194" s="0" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
     </row>
     <row r="195" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B195" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="C195" s="0" t="n">
-        <v>53.1424</v>
+      <c r="A195" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="C195" s="0" t="s">
+        <v>7</v>
       </c>
       <c r="D195" s="0" t="n">
-        <v>-7.6921</v>
-      </c>
-      <c r="E195" s="1" t="s">
-        <v>106</v>
+        <v>53.1424</v>
+      </c>
+      <c r="E195" s="0" t="n">
+        <v>-7.6921</v>
       </c>
       <c r="F195" s="0" t="n">
         <v>386</v>
@@ -5544,37 +5556,37 @@
       </c>
     </row>
     <row r="196" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B196" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="C196" s="0" t="n">
-        <v>53.1424</v>
+      <c r="A196" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="C196" s="0" t="s">
+        <v>7</v>
       </c>
       <c r="D196" s="0" t="n">
-        <v>-7.6921</v>
-      </c>
-      <c r="E196" s="1" t="s">
-        <v>106</v>
+        <v>53.1424</v>
+      </c>
+      <c r="E196" s="0" t="n">
+        <v>-7.6921</v>
       </c>
       <c r="F196" s="0" t="n">
         <v>18</v>
       </c>
       <c r="G196" s="0" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
     </row>
     <row r="197" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B197" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="C197" s="0" t="n">
-        <v>53.1424</v>
+      <c r="A197" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="C197" s="0" t="s">
+        <v>7</v>
       </c>
       <c r="D197" s="0" t="n">
-        <v>-7.6921</v>
-      </c>
-      <c r="E197" s="1" t="s">
-        <v>107</v>
+        <v>53.1424</v>
+      </c>
+      <c r="E197" s="0" t="n">
+        <v>-7.6921</v>
       </c>
       <c r="F197" s="0" t="n">
         <v>229</v>
@@ -5584,37 +5596,37 @@
       </c>
     </row>
     <row r="198" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B198" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="C198" s="0" t="n">
-        <v>53.1424</v>
+      <c r="A198" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="C198" s="0" t="s">
+        <v>7</v>
       </c>
       <c r="D198" s="0" t="n">
-        <v>-7.6921</v>
-      </c>
-      <c r="E198" s="1" t="s">
-        <v>107</v>
+        <v>53.1424</v>
+      </c>
+      <c r="E198" s="0" t="n">
+        <v>-7.6921</v>
       </c>
       <c r="F198" s="0" t="n">
         <v>59</v>
       </c>
       <c r="G198" s="0" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
     </row>
     <row r="199" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B199" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="C199" s="0" t="n">
-        <v>53.1424</v>
+      <c r="A199" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="C199" s="0" t="s">
+        <v>7</v>
       </c>
       <c r="D199" s="0" t="n">
-        <v>-7.6921</v>
-      </c>
-      <c r="E199" s="1" t="s">
-        <v>108</v>
+        <v>53.1424</v>
+      </c>
+      <c r="E199" s="0" t="n">
+        <v>-7.6921</v>
       </c>
       <c r="F199" s="0" t="n">
         <v>376</v>
@@ -5624,57 +5636,57 @@
       </c>
     </row>
     <row r="200" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B200" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="C200" s="0" t="n">
-        <v>53.1424</v>
+      <c r="A200" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="C200" s="0" t="s">
+        <v>7</v>
       </c>
       <c r="D200" s="0" t="n">
-        <v>-7.6921</v>
-      </c>
-      <c r="E200" s="1" t="s">
-        <v>108</v>
+        <v>53.1424</v>
+      </c>
+      <c r="E200" s="0" t="n">
+        <v>-7.6921</v>
       </c>
       <c r="F200" s="0" t="n">
         <v>31</v>
       </c>
       <c r="G200" s="0" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
     </row>
     <row r="201" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B201" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="C201" s="0" t="n">
-        <v>53.1424</v>
+      <c r="A201" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="C201" s="0" t="s">
+        <v>7</v>
       </c>
       <c r="D201" s="0" t="n">
-        <v>-7.6921</v>
-      </c>
-      <c r="E201" s="1" t="s">
-        <v>108</v>
+        <v>53.1424</v>
+      </c>
+      <c r="E201" s="0" t="n">
+        <v>-7.6921</v>
       </c>
       <c r="F201" s="0" t="n">
         <v>43</v>
       </c>
       <c r="G201" s="0" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
     </row>
     <row r="202" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B202" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="C202" s="0" t="n">
-        <v>53.1424</v>
+      <c r="A202" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="C202" s="0" t="s">
+        <v>7</v>
       </c>
       <c r="D202" s="0" t="n">
-        <v>-7.6921</v>
-      </c>
-      <c r="E202" s="1" t="s">
-        <v>109</v>
+        <v>53.1424</v>
+      </c>
+      <c r="E202" s="0" t="n">
+        <v>-7.6921</v>
       </c>
       <c r="F202" s="0" t="n">
         <v>359</v>
@@ -5684,17 +5696,17 @@
       </c>
     </row>
     <row r="203" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B203" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="C203" s="0" t="n">
-        <v>53.1424</v>
+      <c r="A203" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="C203" s="0" t="s">
+        <v>7</v>
       </c>
       <c r="D203" s="0" t="n">
-        <v>-7.6921</v>
-      </c>
-      <c r="E203" s="1" t="s">
-        <v>110</v>
+        <v>53.1424</v>
+      </c>
+      <c r="E203" s="0" t="n">
+        <v>-7.6921</v>
       </c>
       <c r="F203" s="0" t="n">
         <v>221</v>
@@ -5704,37 +5716,37 @@
       </c>
     </row>
     <row r="204" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B204" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="C204" s="0" t="n">
-        <v>53.1424</v>
+      <c r="A204" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="C204" s="0" t="s">
+        <v>7</v>
       </c>
       <c r="D204" s="0" t="n">
-        <v>-7.6921</v>
-      </c>
-      <c r="E204" s="1" t="s">
-        <v>110</v>
+        <v>53.1424</v>
+      </c>
+      <c r="E204" s="0" t="n">
+        <v>-7.6921</v>
       </c>
       <c r="F204" s="0" t="n">
         <v>34</v>
       </c>
       <c r="G204" s="0" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
     </row>
     <row r="205" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B205" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="C205" s="0" t="n">
-        <v>53.1424</v>
+      <c r="A205" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="C205" s="0" t="s">
+        <v>7</v>
       </c>
       <c r="D205" s="0" t="n">
-        <v>-7.6921</v>
-      </c>
-      <c r="E205" s="1" t="s">
-        <v>111</v>
+        <v>53.1424</v>
+      </c>
+      <c r="E205" s="0" t="n">
+        <v>-7.6921</v>
       </c>
       <c r="F205" s="0" t="n">
         <v>343</v>
@@ -5744,37 +5756,37 @@
       </c>
     </row>
     <row r="206" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B206" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="C206" s="0" t="n">
-        <v>53.1424</v>
+      <c r="A206" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="C206" s="0" t="s">
+        <v>7</v>
       </c>
       <c r="D206" s="0" t="n">
-        <v>-7.6921</v>
-      </c>
-      <c r="E206" s="1" t="s">
-        <v>111</v>
+        <v>53.1424</v>
+      </c>
+      <c r="E206" s="0" t="n">
+        <v>-7.6921</v>
       </c>
       <c r="F206" s="0" t="n">
         <v>25</v>
       </c>
       <c r="G206" s="0" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
     </row>
     <row r="207" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B207" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="C207" s="0" t="n">
-        <v>53.1424</v>
+      <c r="A207" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="C207" s="0" t="s">
+        <v>7</v>
       </c>
       <c r="D207" s="0" t="n">
-        <v>-7.6921</v>
-      </c>
-      <c r="E207" s="1" t="s">
-        <v>112</v>
+        <v>53.1424</v>
+      </c>
+      <c r="E207" s="0" t="n">
+        <v>-7.6921</v>
       </c>
       <c r="F207" s="0" t="n">
         <v>330</v>
@@ -5784,37 +5796,37 @@
       </c>
     </row>
     <row r="208" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B208" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="C208" s="0" t="n">
-        <v>53.1424</v>
+      <c r="A208" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="C208" s="0" t="s">
+        <v>7</v>
       </c>
       <c r="D208" s="0" t="n">
-        <v>-7.6921</v>
-      </c>
-      <c r="E208" s="1" t="s">
-        <v>112</v>
+        <v>53.1424</v>
+      </c>
+      <c r="E208" s="0" t="n">
+        <v>-7.6921</v>
       </c>
       <c r="F208" s="0" t="n">
         <v>19</v>
       </c>
       <c r="G208" s="0" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
     </row>
     <row r="209" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B209" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="C209" s="0" t="n">
-        <v>53.1424</v>
+      <c r="A209" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="C209" s="0" t="s">
+        <v>7</v>
       </c>
       <c r="D209" s="0" t="n">
-        <v>-7.6921</v>
-      </c>
-      <c r="E209" s="1" t="s">
-        <v>113</v>
+        <v>53.1424</v>
+      </c>
+      <c r="E209" s="0" t="n">
+        <v>-7.6921</v>
       </c>
       <c r="F209" s="0" t="n">
         <v>266</v>
@@ -5824,37 +5836,37 @@
       </c>
     </row>
     <row r="210" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B210" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="C210" s="0" t="n">
-        <v>53.1424</v>
+      <c r="A210" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="C210" s="0" t="s">
+        <v>7</v>
       </c>
       <c r="D210" s="0" t="n">
-        <v>-7.6921</v>
-      </c>
-      <c r="E210" s="1" t="s">
-        <v>113</v>
+        <v>53.1424</v>
+      </c>
+      <c r="E210" s="0" t="n">
+        <v>-7.6921</v>
       </c>
       <c r="F210" s="0" t="n">
         <v>16</v>
       </c>
       <c r="G210" s="0" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
     </row>
     <row r="211" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B211" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="C211" s="0" t="n">
-        <v>53.1424</v>
+      <c r="A211" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C211" s="0" t="s">
+        <v>7</v>
       </c>
       <c r="D211" s="0" t="n">
-        <v>-7.6921</v>
-      </c>
-      <c r="E211" s="1" t="s">
-        <v>114</v>
+        <v>53.1424</v>
+      </c>
+      <c r="E211" s="0" t="n">
+        <v>-7.6921</v>
       </c>
       <c r="F211" s="0" t="n">
         <v>211</v>
@@ -5864,37 +5876,37 @@
       </c>
     </row>
     <row r="212" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B212" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="C212" s="0" t="n">
-        <v>53.1424</v>
+      <c r="A212" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C212" s="0" t="s">
+        <v>7</v>
       </c>
       <c r="D212" s="0" t="n">
-        <v>-7.6921</v>
-      </c>
-      <c r="E212" s="1" t="s">
-        <v>114</v>
+        <v>53.1424</v>
+      </c>
+      <c r="E212" s="0" t="n">
+        <v>-7.6921</v>
       </c>
       <c r="F212" s="0" t="n">
         <v>23</v>
       </c>
       <c r="G212" s="0" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
     </row>
     <row r="213" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B213" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="C213" s="0" t="n">
-        <v>53.1424</v>
+      <c r="A213" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="C213" s="0" t="s">
+        <v>7</v>
       </c>
       <c r="D213" s="0" t="n">
-        <v>-7.6921</v>
-      </c>
-      <c r="E213" s="1" t="s">
-        <v>115</v>
+        <v>53.1424</v>
+      </c>
+      <c r="E213" s="0" t="n">
+        <v>-7.6921</v>
       </c>
       <c r="F213" s="0" t="n">
         <v>265</v>
@@ -5904,37 +5916,37 @@
       </c>
     </row>
     <row r="214" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B214" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="C214" s="0" t="n">
-        <v>53.1424</v>
+      <c r="A214" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="C214" s="0" t="s">
+        <v>7</v>
       </c>
       <c r="D214" s="0" t="n">
-        <v>-7.6921</v>
-      </c>
-      <c r="E214" s="1" t="s">
-        <v>115</v>
+        <v>53.1424</v>
+      </c>
+      <c r="E214" s="0" t="n">
+        <v>-7.6921</v>
       </c>
       <c r="F214" s="0" t="n">
         <v>37</v>
       </c>
       <c r="G214" s="0" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
     </row>
     <row r="215" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B215" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="C215" s="0" t="n">
-        <v>53.1424</v>
+      <c r="A215" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="C215" s="0" t="s">
+        <v>7</v>
       </c>
       <c r="D215" s="0" t="n">
-        <v>-7.6921</v>
-      </c>
-      <c r="E215" s="1" t="s">
-        <v>116</v>
+        <v>53.1424</v>
+      </c>
+      <c r="E215" s="0" t="n">
+        <v>-7.6921</v>
       </c>
       <c r="F215" s="0" t="n">
         <v>137</v>
@@ -5944,37 +5956,37 @@
       </c>
     </row>
     <row r="216" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B216" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="C216" s="0" t="n">
-        <v>53.1424</v>
+      <c r="A216" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="C216" s="0" t="s">
+        <v>7</v>
       </c>
       <c r="D216" s="0" t="n">
-        <v>-7.6921</v>
-      </c>
-      <c r="E216" s="1" t="s">
-        <v>116</v>
+        <v>53.1424</v>
+      </c>
+      <c r="E216" s="0" t="n">
+        <v>-7.6921</v>
       </c>
       <c r="F216" s="0" t="n">
         <v>29</v>
       </c>
       <c r="G216" s="0" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
     </row>
     <row r="217" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B217" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="C217" s="0" t="n">
-        <v>53.1424</v>
+      <c r="A217" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="C217" s="0" t="s">
+        <v>7</v>
       </c>
       <c r="D217" s="0" t="n">
-        <v>-7.6921</v>
-      </c>
-      <c r="E217" s="1" t="s">
-        <v>117</v>
+        <v>53.1424</v>
+      </c>
+      <c r="E217" s="0" t="n">
+        <v>-7.6921</v>
       </c>
       <c r="F217" s="0" t="n">
         <v>156</v>
@@ -5984,37 +5996,37 @@
       </c>
     </row>
     <row r="218" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B218" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="C218" s="0" t="n">
-        <v>53.1424</v>
+      <c r="A218" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="C218" s="0" t="s">
+        <v>7</v>
       </c>
       <c r="D218" s="0" t="n">
-        <v>-7.6921</v>
-      </c>
-      <c r="E218" s="1" t="s">
-        <v>117</v>
+        <v>53.1424</v>
+      </c>
+      <c r="E218" s="0" t="n">
+        <v>-7.6921</v>
       </c>
       <c r="F218" s="0" t="n">
         <v>27</v>
       </c>
       <c r="G218" s="0" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
     </row>
     <row r="219" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B219" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="C219" s="0" t="n">
-        <v>53.1424</v>
+      <c r="A219" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="C219" s="0" t="s">
+        <v>7</v>
       </c>
       <c r="D219" s="0" t="n">
-        <v>-7.6921</v>
-      </c>
-      <c r="E219" s="1" t="s">
-        <v>118</v>
+        <v>53.1424</v>
+      </c>
+      <c r="E219" s="0" t="n">
+        <v>-7.6921</v>
       </c>
       <c r="F219" s="0" t="n">
         <v>219</v>
@@ -6024,37 +6036,37 @@
       </c>
     </row>
     <row r="220" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B220" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="C220" s="0" t="n">
-        <v>53.1424</v>
+      <c r="A220" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="C220" s="0" t="s">
+        <v>7</v>
       </c>
       <c r="D220" s="0" t="n">
-        <v>-7.6921</v>
-      </c>
-      <c r="E220" s="1" t="s">
-        <v>118</v>
+        <v>53.1424</v>
+      </c>
+      <c r="E220" s="0" t="n">
+        <v>-7.6921</v>
       </c>
       <c r="F220" s="0" t="n">
         <v>18</v>
       </c>
       <c r="G220" s="0" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
     </row>
     <row r="221" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B221" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="C221" s="0" t="n">
-        <v>53.1424</v>
+      <c r="A221" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="C221" s="0" t="s">
+        <v>7</v>
       </c>
       <c r="D221" s="0" t="n">
-        <v>-7.6921</v>
-      </c>
-      <c r="E221" s="1" t="s">
-        <v>119</v>
+        <v>53.1424</v>
+      </c>
+      <c r="E221" s="0" t="n">
+        <v>-7.6921</v>
       </c>
       <c r="F221" s="0" t="n">
         <v>236</v>
@@ -6064,37 +6076,37 @@
       </c>
     </row>
     <row r="222" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B222" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="C222" s="0" t="n">
-        <v>53.1424</v>
+      <c r="A222" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="C222" s="0" t="s">
+        <v>7</v>
       </c>
       <c r="D222" s="0" t="n">
-        <v>-7.6921</v>
-      </c>
-      <c r="E222" s="1" t="s">
-        <v>119</v>
+        <v>53.1424</v>
+      </c>
+      <c r="E222" s="0" t="n">
+        <v>-7.6921</v>
       </c>
       <c r="F222" s="0" t="n">
         <v>12</v>
       </c>
       <c r="G222" s="0" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
     </row>
     <row r="223" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B223" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="C223" s="0" t="n">
-        <v>53.1424</v>
+      <c r="A223" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="C223" s="0" t="s">
+        <v>7</v>
       </c>
       <c r="D223" s="0" t="n">
-        <v>-7.6921</v>
-      </c>
-      <c r="E223" s="1" t="s">
-        <v>120</v>
+        <v>53.1424</v>
+      </c>
+      <c r="E223" s="0" t="n">
+        <v>-7.6921</v>
       </c>
       <c r="F223" s="0" t="n">
         <v>139</v>
@@ -6104,30 +6116,30 @@
       </c>
     </row>
     <row r="224" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B224" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="C224" s="0" t="n">
-        <v>53.1424</v>
+      <c r="A224" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="C224" s="0" t="s">
+        <v>7</v>
       </c>
       <c r="D224" s="0" t="n">
-        <v>-7.6921</v>
-      </c>
-      <c r="E224" s="1" t="s">
-        <v>120</v>
+        <v>53.1424</v>
+      </c>
+      <c r="E224" s="0" t="n">
+        <v>-7.6921</v>
       </c>
       <c r="F224" s="0" t="n">
         <v>15</v>
       </c>
       <c r="G224" s="0" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
     </row>
     <row r="225" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E225" s="1"/>
+      <c r="A225" s="1"/>
     </row>
     <row r="226" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E226" s="1"/>
+      <c r="A226" s="1"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
